--- a/ceph/内核模块统计.xlsx
+++ b/ceph/内核模块统计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaohedong/Desktop/cephAll/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaohedong/Desktop/projects/mygit/ceph/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,248 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="320">
-  <si>
-    <t>CONFIG_MACH_ARMADA_370=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MACH_ARMADA_375=y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="562">
   <si>
     <t>CONFIG_MACH_ARMADA_38X=y</t>
   </si>
   <si>
-    <t>CONFIG_MACH_ARMADA_39X=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MACH_ARMADA_XP=y</t>
-  </si>
-  <si>
-    <t>CONFIG_PCI_MVEBU=y</t>
-  </si>
-  <si>
     <t>CONFIG_IP_PNP_BOOTP=y</t>
   </si>
   <si>
-    <t>CONFIG_SATA_AHCI=y</t>
-  </si>
-  <si>
-    <t>CONFIG_AHCI_MVEBU=y</t>
-  </si>
-  <si>
-    <t>CONFIG_SATA_MV=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NETDEVICES=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NET_DSA_MV88E6171=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MV643XX_ETH=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MVNETA=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MVPP2=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MARVELL_PHY=y</t>
-  </si>
-  <si>
-    <t>CONFIG_FIXED_PHY=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MWIFIEX=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MWIFIEX_SDIO=y</t>
-  </si>
-  <si>
-    <t>CONFIG_INPUT_EVDEV=y</t>
-  </si>
-  <si>
-    <t>CONFIG_KEYBOARD_GPIO=y</t>
-  </si>
-  <si>
-    <t>CONFIG_SERIAL_8250=y</t>
-  </si>
-  <si>
-    <t>CONFIG_SERIAL_8250_CONSOLE=y</t>
-  </si>
-  <si>
-    <t>CONFIG_SERIAL_8250_DW=y</t>
-  </si>
-  <si>
-    <t>CONFIG_SERIAL_OF_PLATFORM=y</t>
-  </si>
-  <si>
-    <t>CONFIG_I2C=y</t>
-  </si>
-  <si>
-    <t>CONFIG_I2C_CHARDEV=y</t>
-  </si>
-  <si>
-    <t>CONFIG_I2C_MV64XXX=y</t>
-  </si>
-  <si>
-    <t>CONFIG_SPI=y</t>
-  </si>
-  <si>
-    <t>CONFIG_SPI_ORION=y</t>
-  </si>
-  <si>
-    <t>CONFIG_GPIO_SYSFS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_GPIO_PCA953X=y</t>
-  </si>
-  <si>
-    <t>CONFIG_POWER_SUPPLY=y</t>
-  </si>
-  <si>
-    <t>CONFIG_POWER_RESET=y</t>
-  </si>
-  <si>
-    <t>CONFIG_POWER_RESET_GPIO=y</t>
-  </si>
-  <si>
-    <t>CONFIG_SENSORS_GPIO_FAN=y</t>
-  </si>
-  <si>
-    <t>CONFIG_THERMAL=y</t>
-  </si>
-  <si>
-    <t>CONFIG_ARMADA_THERMAL=y</t>
-  </si>
-  <si>
-    <t>CONFIG_WATCHDOG=y</t>
-  </si>
-  <si>
-    <t>CONFIG_ORION_WATCHDOG=y</t>
-  </si>
-  <si>
-    <t>CONFIG_REGULATOR=y</t>
-  </si>
-  <si>
-    <t>CONFIG_REGULATOR_FIXED_VOLTAGE=y</t>
-  </si>
-  <si>
-    <t>CONFIG_USB=y</t>
-  </si>
-  <si>
-    <t>CONFIG_USB_XHCI_HCD=y</t>
-  </si>
-  <si>
-    <t>CONFIG_USB_XHCI_MVEBU=y</t>
-  </si>
-  <si>
-    <t>CONFIG_USB_EHCI_HCD=y</t>
-  </si>
-  <si>
-    <t>CONFIG_USB_EHCI_ROOT_HUB_TT=y</t>
-  </si>
-  <si>
-    <t>CONFIG_USB_STORAGE=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MMC=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MMC_SDHCI=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MMC_SDHCI_PLTFM=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MMC_SDHCI_DOVE=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MMC_SDHCI_PXAV3=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MMC_MVSDIO=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NEW_LEDS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_LEDS_CLASS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_LEDS_GPIO=y</t>
-  </si>
-  <si>
-    <t>CONFIG_LEDS_TRIGGERS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_LEDS_TRIGGER_TIMER=y</t>
-  </si>
-  <si>
-    <t>CONFIG_LEDS_TRIGGER_HEARTBEAT=y</t>
-  </si>
-  <si>
-    <t>CONFIG_RTC_CLASS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_RTC_DRV_DS1307=y</t>
-  </si>
-  <si>
-    <t>CONFIG_RTC_DRV_PCF8563=y</t>
-  </si>
-  <si>
-    <t>CONFIG_RTC_DRV_S35390A=y</t>
-  </si>
-  <si>
-    <t>CONFIG_RTC_DRV_MV=y</t>
-  </si>
-  <si>
-    <t>CONFIG_RTC_DRV_ARMADA38X=y</t>
-  </si>
-  <si>
-    <t>CONFIG_DMADEVICES=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MV_XOR=y</t>
-  </si>
-  <si>
     <t># CONFIG_IOMMU_SUPPORT is not set</t>
   </si>
   <si>
-    <t>CONFIG_MEMORY=y</t>
-  </si>
-  <si>
-    <t>CONFIG_EXT4_FS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_ISO9660_FS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_JOLIET=y</t>
-  </si>
-  <si>
-    <t>CONFIG_UDF_FS=m</t>
-  </si>
-  <si>
-    <t>CONFIG_MSDOS_FS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_VFAT_FS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_TMPFS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NFS_FS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_ROOT_NFS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NFSD=y</t>
-  </si>
-  <si>
     <t>CONFIG_NFSD_V3=y</t>
   </si>
   <si>
@@ -569,14 +338,6 @@
   </si>
   <si>
     <t>CONFIG_MODULES=y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG_MODULE_UNLOAD=y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG_ARCH_MVEBU=y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -743,19 +504,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONFIG_IP_PNP=y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This enables automatic configuration of IP addresses of devices and of the routing table during kernel boot, based on either information supplied on the kernel command line or by BOOTP or RARP protocols. You need to say Y only for diskless machines requiring network access to boot (in which case you want to say Y to "Root file system on NFS" as well), because all other machines configure the network in their startup scripts.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IP: kernel level autoconfiguration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG_IP_PNP_DHCP=y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -773,10 +526,6 @@
   </si>
   <si>
     <t>IP: DHCP support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG_CFG80211=y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -795,15 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">The uevent helper program is forked by the kernel for every uevent. Before the switch to the netlink-based uevent source, this was used to hook hotplug scripts into kernel device events. It usually pointed to a shell script at /sbin/hotplug. This should not be used today, because usual systems create many events at bootup or device discovery in a very short time frame. One forked process per event can create so many processes that it creates a high system load, or on smaller systems it is known to create out-of-memory situations during bootup.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Support for uevent helper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CONFIG_DEVTMPFS=y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,19 +557,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONFIG_DEVTMPFS_MOUNT=y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Automount devtmpfs at /dev, after the kernel mounted the rootfs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>This will instruct the kernel to automatically mount the devtmpfs filesystem at /dev, directly after the kernel has mounted the root filesystem. The behavior can be overridden with the commandline parameter: devtmpfs.mount=0|1. This option does not affect initramfs based booting, here the devtmpfs filesystem always needs to be mounted manually after the rootfs is mounted. With this option enabled, it allows to bring up a system in rescue mode with init=/bin/sh, even when the /dev directory on the rootfs is completely empty.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG_MTD=y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -855,10 +587,6 @@
   </si>
   <si>
     <t>Log panic/oops to an MTD buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG_MTD_BLOCK=y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1007,10 +735,6 @@
   </si>
   <si>
     <t>CONFIG_ATA=y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG_BLK_DEV_SD=y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1183,6 +907,1467 @@
   </si>
   <si>
     <t>Module unloading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BLK_DEV_SD=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MODULE_UNLOAD=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ARCH_MVEBU=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell Engineering Business Unit (MVEBU) SoCs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ARCH_MULTI_V7 || CONFIG_ARCH_MULTI_V5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(none)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MACH_ARMADA_370=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ARCH_MULTI_V7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell Armada 370 boards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MACH_ARMADA_375=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell Armada 375 boards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say 'Y' here if you want your kernel to support boards based on the Marvell Armada 375 SoC with device tree.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say 'Y' here if you want your kernel to support boards based on the Marvell Armada 370 SoC with device tree.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say 'Y' here if you want your kernel to support boards based on the Marvell Armada 380/385 SoC with device tree.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell Armada 380/385 boards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MACH_ARMADA_39X=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say 'Y' here if you want your kernel to support boards based on the Marvell Armada 39x SoC with device tree.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell Armada 39x boards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MACH_ARMADA_XP=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell Armada XP boards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say 'Y' here if you want your kernel to support boards based on the Marvell Armada XP SoC with device tree.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell Dove boards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say 'Y' here if you want your kernel to support the Marvell Dove using flattened device tree.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Find out whether you have a PCI motherboard. PCI is the name of a bus system, i.e. the way the CPU talks to the other stuff inside your box. Other bus systems are ISA, EISA, MicroChannel (MCA) or VESA. If you have PCI, say Y, otherwise N.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MIGHT_HAVE_PCI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCI support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message Signaled Interrupts (MSI and MSI-X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This allows device drivers to enable MSI (Message Signaled Interrupts). Message Signaled Interrupts enable a device to generate an interrupt using an inbound Memory Write on its PCI bus instead of asserting a device IRQ pin.
+Use of PCI MSI interrupts can be disabled at kernel boot time by using the 'pci=nomsi' option. This disables MSI for the entire system.
+If you don't know what to do here, say Y.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_PCI_MVEBU=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_PCI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell EBU PCIe controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symmetric Multi-Processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_CPU_V6K || CONFIG_CPU_V7 ) &amp;&amp; ( CONFIG_GENERIC_CLOCKEVENTS ) &amp;&amp; ( CONFIG_HAVE_SMP ) &amp;&amp; ( CONFIG_MMU || CONFIG_ARM_MPU )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_ARCH_MVEBU || CONFIG_ARCH_DOVE ) &amp;&amp; ( CONFIG_ARM ) &amp;&amp; ( CONFIG_OF )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This enables support for systems with more than one CPU. If you have a system with only one CPU, say N. If you have a system with more than one CPU, say Y.
+If you say N here, the kernel will run on uni- and multiprocessor machines, but will use only one CPU of a multiprocessor machine. If you say Y here, the kernel will run on many, but not all, uniprocessor machines. On a uniprocessor machine, the kernel will run faster if you say N here.
+See also Documentation/x86/i386/IO-APIC.txt, Documentation/nmi_watchdog.txt and the SMP-HOWTO available at http://tldp.org/HOWTO/SMP-HOWTO.html.
+If you don't know what to do here, say N.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ! CONFIG_CPU_V7 &amp;&amp; ! CONFIG_CPU_V7M &amp;&amp; ! CONFIG_CPU_V6 &amp;&amp; ! CONFIG_CPU_V6K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use the ARM EABI to compile the kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Memory Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MMU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compressed ROM boot loader base address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (none)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compressed ROM boot loader BSS address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use appended device tree blob to zImage (EXPERIMENTAL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_OF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplement the appended DTB with traditional ATAG information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ARM_APPENDED_DTB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ARCH_MVEBU &amp;&amp; ! CONFIG_ARM64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU Idle Driver for mvebu v7 family processors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CPU_V6 || CONFIG_CPU_V6K || CONFIG_CPU_ARM926T || CONFIG_CPU_V7 || CONFIG_CPU_FEROCEON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say Y to include VFP support code in the kernel. This is needed if your hardware includes a VFP unit.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_VFPv3 &amp;&amp; CONFIG_CPU_V7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_IP_PNP=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_IP_PNP_DHCP=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_IP_PNP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CFG80211=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_RFKILL || ! CONFIG_RFKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path to uevent helper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To disable user space helper program execution at by default specify an empty string here. This setting can still be altered via /proc/sys/kernel/hotplug or via /sys/kernel/uevent_helper later at runtime.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_UEVENT_HELPER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_DEVTMPFS_MOUNT=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MTD=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MTD_BLOCK=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BLOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MTD_GEN_PROBE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCSI disk support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you want to use SCSI hard disks, Fibre Channel disks, Serial ATA (SATA) or Parallel ATA (PATA) hard disks, USB storage or the SCSI or parallel port version of the IOMEGA ZIP drive, say Y and read the SCSI-HOWTO, the Disk-HOWTO and the Multi-Disk-HOWTO, available from http://www.tldp.org/docs.html#howto. This is NOT for SCSI CD-ROMs.
+To compile this driver as a module, choose M here and read Documentation/scsi/scsi.txt. The module will be called sd_mod.
+Do not compile this driver as a module if your root file system (the one containing the directory /) is located on a SCSI disk. In this case, do not compile the driver for your SCSI host adapter (below) as a module either.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SCSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serial ATA and Parallel ATA drivers (libata)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_HAS_IOMEM ) &amp;&amp; ( CONFIG_BLOCK )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you want to use an ATA hard disk, ATA tape drive, ATA CD-ROM or any other ATA device under Linux, say Y and make sure that you know the name of your ATA host adapter (the card inside your computer that "speaks" the ATA protocol, also called ATA controller), because you will be asked for it.
+NOTE: ATA enables basic SCSI support; *however*, 'SCSI disk support', 'SCSI tape support', or 'SCSI CDROM support' may also be needed, depending on your hardware configuration.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SATA_AHCI=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This option enables support for AHCI Serial ATA.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHCI SATA support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_AHCI_MVEBU=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This option enables support for the Marvebu EBU SoC's onboard AHCI SATA.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell EBU AHCI SATA support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ARCH_MVEBU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SATA_MV=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell SATA support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_HAS_DMA ) &amp;&amp; ( CONFIG_PCI || CONFIG_ARCH_DOVE || CONFIG_ARCH_MV78XX0 || \)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This option enables support for the Marvell Serial ATA family. Currently supports 88SX[56]0[48][01] PCI(-X) chips, as well as the newer [67]042 PCI-X/PCIe and SOC devices.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NETDEVICES=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network device support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can say N here if you don't intend to connect your Linux box to any other computer at all.
+You'll have to say Y if your computer contains a network card that you want to use under Linux. If you are going to run SLIP or PPP over telephone line or null modem cable you need say Y here. Connecting two machines with parallel ports using PLIP needs this, as well as AX.25/KISS for sending Internet traffic over amateur radio links.
+See also "The Linux Network Administrator's Guide" by Olaf Kirch and Terry Dawson. Available at http://www.tldp.org/guides.html.
+If unsure, say Y.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_UML ) &amp;&amp; ( CONFIG_NET )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NET_DSA_MV88E6171=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell 88E6171/6175/6350/6351 ethernet switch chip support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This enables support for the Marvell 88E6171/6175/6350/6351 ethernet switches chips.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MV643XX_ETH=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This driver supports the gigabit ethernet MACs in the Marvell Discovery PPC/MIPS chipset family (MV643XX) and in the Marvell Orion ARM SoC family.
+Some boards that use the Discovery chipset are the Momenco Ocelot C and Jaguar ATX and Pegasos II.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(( CONFIG_MV64X60 || CONFIG_PPC32 || CONFIG_PLAT_ORION || CONFIG_COMPILE_TEST ) &amp;&amp; CONFIG_INET ) &amp;&amp; ( CONFIG_HAS_DMA )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell Discovery (643XX) and Orion ethernet support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MVNETA=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_PLAT_ORION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell Armada 370/38x/XP network interface support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This driver supports the network interface units in the Marvell ARMADA XP, ARMADA 370 and ARMADA 38x SoC family.
+Note that this driver is distinct from the mv643xx_eth driver, which should be used for the older Marvell SoCs (Dove, Orion, Discovery, Kirkwood).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MVPP2=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell Armada 375 network interface support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MACH_ARMADA_375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This driver supports the network interface units in the Marvell ARMADA 375 SoC.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MARVELL_PHY=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drivers for Marvell PHYs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently has a driver for the 88E1011S
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_FIXED_PHY=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Driver for MDIO Bus/PHY emulation with fixed speed/link PHYs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_PHYLIB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adds the platform "fixed" MDIO Bus to cover the boards that use PHYs that are not connected to the real MDIO bus.
+Currently tested with mpc866ads and mpc8349e-mitx.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MWIFIEX=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CFG80211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell WiFi-Ex Driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This adds support for wireless adapters based on Marvell 802.11n/ac chipsets.
+If you choose to build it as a module, it will be called mwifiex.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MWIFIEX_SDIO=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MWIFIEX &amp;&amp; CONFIG_MMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell WiFi-Ex Driver for SD8786/SD8787/SD8797/SD8887/SD8897/SD8997</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This adds support for wireless adapters based on Marvell 8786/8787/8797/8887/8897/8997 chipsets with SDIO interface.
+If you choose to build it as a module, it will be called mwifiex_sdio.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_KEYBOARD_GPIO=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_INPUT_EVDEV=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Say Y here if you want your input device events be accessible under char device 13:64+ - /dev/input/eventX in a generic way.
+To compile this driver as a module, choose M here: the module will be called evdev.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_GPIOLIB || CONFIG_COMPILE_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO Buttons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This driver implements support for buttons connected to GPIO pins of various CPUs (and some other chips).
+Say Y here if your device has buttons connected directly to such GPIO pins. Your board-specific setup logic must also provide a platform device, with configuration data saying which GPIOs are used.
+To compile this driver as a module, choose M here: the module will be called gpio_keys.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SERIAL_8250=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8250/16550 and compatible serial support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This selects whether you want to include the driver for the standard serial ports. The standard answer is Y. People who might say N here are those that are setting up dedicated Ethernet WWW/FTP servers, or users that have one of the various bus mice instead of a serial mouse and don't intend to use their machine's standard serial port for anything. (Note that the Cyclades multi serial port driver does not need this driver built in for it to work.)
+To compile this driver as a module, choose M here: the module will be called 8250. [WARNING: Do not compile this driver as a module if you are using non-standard serial ports, since the configuration information will be lost when the driver is unloaded. This limitation may be lifted in the future.]
+BTW1: If you have a mouseman serial mouse which is not recognized by the X window system, try running gpm first.
+BTW2: If you intend to use a software modem (also called Winmodem) under Linux, forget it. These modems are crippled and require proprietary drivers which are only available under Windows.
+Most people will say Y or M here, so that they can use serial mice, modems and similar devices connecting to the standard serial ports.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! CONFIG_S390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SERIAL_8250_CONSOLE=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console on 8250/16550 and compatible serial port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you say Y here, it will be possible to use a serial port as the system console (the system console is the device which receives all kernel messages and warnings and which allows logins in single user mode). This could be useful if some terminal or printer is connected to that serial port.
+Even if you say Y here, the currently visible virtual console (/dev/tty0) will still be used as the system console by default, but you can alter that using a kernel command line option such as "console=ttyS1". (Try "man bootparam" or see the documentation of your boot loader (grub or lilo or loadlin) about how to pass options to the kernel at boot time.)
+If you don't have a VGA card installed and you say Y here, the kernel will automatically use the first serial line, /dev/ttyS0, as system console.
+You can set that using a kernel command line option such as "console=uart8250,io,0x3f8,9600n8" "console=uart8250,mmio,0xff5e0000,115200n8". and it will switch to normal serial console when the corresponding port is ready. "earlycon=uart8250,io,0x3f8,9600n8" "earlycon=uart8250,mmio,0xff5e0000,115200n8". it will not only setup early console.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SERIAL_8250 = CONFIG_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SERIAL_8250_DW=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support for Synopsys DesignWare 8250 quirks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selecting this option will enable handling of the extra features present in the Synopsys DesignWare APB UART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SERIAL_8250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SERIAL_OF_PLATFORM=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serial port on Open Firmware platform bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_OF ) &amp;&amp; ( CONFIG_SERIAL_8250 || CONFIG_SERIAL_OF_PLATFORM_NWPSERIAL )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have a PowerPC based system that has serial ports on a platform specific bus, you should enable this option. Currently, only 8250 compatible ports are supported, but others can easily be added.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_I2C=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C (pronounce: I-squared-C) is a slow serial bus protocol used in many micro controller applications and developed by Philips. SMBus, or System Management Bus is a subset of the I2C protocol. More information is contained in the directory Documentation/i2c/, especially in the file called "summary" there.
+Both I2C and SMBus are supported here. You will need this for hardware sensors support, and also for Video For Linux support.
+If you want I2C support, you should say Y here and also to the specific driver for your bus adapter(s) below.
+This I2C support can also be built as a module. If so, the module will be called i2c-core.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_I2C_CHARDEV=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C device interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Say Y here to use i2c-* device files, usually found in the /dev directory on your system. They make it possible to have user-space programs use the I2C bus. Information on how to do this is contained in the file Documentation/i2c/dev-interface.
+This support is also available as a module. If so, the module will be called i2c-dev.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_I2C_MV64XXX=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell mv64xxx I2C Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you say yes to this option, support will be included for the built-in I2C interface on the Marvell 64xxx line of host bridges. This driver is also used for Allwinner SoCs I2C controllers.
+This driver can also be built as a module. If so, the module will be called i2c-mv64xxx.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MV64X60 || CONFIG_PLAT_ORION || CONFIG_ARCH_SUNXI || CONFIG_ARCH_MVEBU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SPI=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_HAS_IOMEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The "Serial Peripheral Interface" is a low level synchronous protocol. Chips that support SPI can have data transfer rates up to several tens of Mbit/sec. Chips are addressed with a controller and a chipselect. Most SPI slaves don't support dynamic device discovery; some are even write-only or read-only.
+SPI is widely used by microcontrollers to talk with sensors, eeprom and flash memory, codecs and various other controller chips, analog to digital (and d-to-a) converters, and more. MMC and SD cards can be accessed using SPI protocol; and for DataFlash cards used in MMC sockets, SPI must always be used.
+SPI is one of a family of similar protocols using a four wire interface (select, clock, data in, data out) including Microwire (half duplex), SSP, SSI, and PSP. This driver framework should work with most such devices and controllers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SPI_ORION=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This enables using the SPI master controller on the Orion and MVEBU chips.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orion SPI master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_PLAT_ORION || CONFIG_ARCH_MVEBU || CONFIG_COMPILE_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_GPIO_SYSFS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sys/class/gpio/... (sysfs interface)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Say Y here to add a sysfs interface for GPIOs.
+This is mostly useful to work around omissions in a system's kernel support. Those are common in custom and semicustom hardware assembled using standard kernels with a minimum of custom patches. In those cases, userspace code may import a given GPIO from the kernel, if no kernel driver requested it.
+Kernel drivers may also request that a particular GPIO be exported to userspace; this can be useful when debugging.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SYSFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_GPIO_PCA953X=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA95[357]x, PCA9698, TCA64xx, and MAX7310 I/O ports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Say yes here to provide access to several register-oriented SMBus I/O expanders, made mostly by NXP or TI. Compatible models include:
+4 bits: pca9536, pca9537
+8 bits: max7310, max7315, pca6107, pca9534, pca9538, pca9554, pca9556, pca9557, pca9574, tca6408, tca9554, xra1202
+16 bits: max7312, max7313, pca9535, pca9539, pca9555, pca9575, tca6416
+24 bits: tca6424
+40 bits: pca9505, pca9698</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_POWER_SUPPLY=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say Y here to enable power supply class support. This allows power supply (batteries, AC, USB) monitoring by userspace via sysfs and uevent (if available) and/or APM kernel interface (if selected below).
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power supply class support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_POWER_RESET=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rovides a number of drivers which either reset a complete board or shut it down, by manipulating the main power supply on the board.
+Say Y here to enable board reset and power off
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board level reset or power off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_POWER_RESET_GPIO=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This driver supports turning off your board via a GPIO line. If your board needs a GPIO high/low to power down, say Y and create a binding in your devicetree.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_OF_GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO power-off driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SENSORS_GPIO_FAN=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO fan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you say yes here you get support for fans connected to GPIO lines.
+This driver can also be built as a module. If so, the module will be called gpio-fan.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_OF_GPIO ) &amp;&amp; ( CONFIG_GPIOLIB || CONFIG_COMPILE_TEST ) &amp;&amp; ( CONFIG_THERMAL || CONFIG_THERMAL = CONFIG_n )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_THERMAL=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generic Thermal sysfs driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic Thermal Sysfs driver offers a generic mechanism for thermal management. Usually it's made up of one or more thermal zone and cooling device. Each thermal zone contains its own temperature, trip points, cooling devices. All platforms with ACPI thermal support can use this driver. If you want this support, you should say Y or M here.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ARMADA_THERMAL=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armada 370/XP thermal management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_ARCH_MVEBU || CONFIG_COMPILE_TEST ) &amp;&amp; ( CONFIG_HAS_IOMEM ) &amp;&amp; ( CONFIG_OF )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable this option if you want to have support for thermal management controller present in Armada 370 and Armada XP SoC.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_WATCHDOG=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watchdog Timer Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you say Y here (and to one of the following options) and create a character special file /dev/watchdog with major number 10 and minor number 130 using mknod ("man mknod"), you will get a watchdog, i.e.: subsequently opening the file and then failing to write to it for longer than 1 minute will result in rebooting the machine. This could be useful for a networked machine that needs to come back on-line as fast as possible after a lock-up. There's both a watchdog implementation entirely in software (which can sometimes fail to reboot the machine) and a driver for hardware watchdog boards, which are more robust and can also keep track of the temperature inside your computer. For details, read Documentation/watchdog/watchdog-api.txt in the kernel source.
+The watchdog is usually used together with the watchdog daemon which is available from &lt;ftp://ibiblio.org/pub/Linux/system/daemons/watchdog/&gt;. This daemon can also monitor NFS connections and can reboot the machine when the process table is full.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ORION_WATCHDOG=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_ARCH_ORION5X || CONFIG_ARCH_DOVE || CONFIG_MACH_DOVE || CONFIG_ARCH_MVEBU || ( CONFIG_COMPILE_TEST &amp;&amp; ! CONFIG_ARCH_EBSA110 )) &amp;&amp; ( CONFIG_ARM )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say Y here if to include support for the watchdog timer in the Marvell Orion5x and Kirkwood ARM SoCs. To compile this driver as a module, choose M here: the module will be called orion_wdt.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orion watchdog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_REGULATOR=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voltage and Current Regulator Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generic Voltage and Current Regulator support.
+This framework is designed to provide a generic interface to voltage and current regulators within the Linux kernel. It's intended to provide voltage and current control to client or consumer drivers and also provide status information to user space applications through a sysfs interface.
+The intention is to allow systems to dynamically control regulator output in order to save power and prolong battery life. This applies to both voltage regulators (where voltage output is controllable) and current sinks (where current output is controllable).
+This framework safely compiles out if not selected so that client drivers can still be used in systems with no software controllable regulators.
+If unsure, say no.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_REGULATOR_FIXED_VOLTAGE=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed voltage regulator support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This driver provides support for fixed voltage regulators, useful for systems which use a combination of software managed regulators and simple non-configurable regulators.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_USB_XHCI_HCD=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_USB=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal Serial Bus (USB) is a specification for a serial bus subsystem which offers higher speeds and more features than the traditional PC serial port. The bus supplies power to peripherals and allows for hot swapping. Up to 127 USB peripherals can be connected to a single USB host in a tree structure.
+The USB host is the root of the tree, the peripherals are the leaves and the inner nodes are special USB devices called hubs. Most PCs now have USB host ports, used to connect peripherals such as scanners, keyboards, mice, modems, cameras, disks, flash memory, network links, and printers to the PC.
+Say Y here if your computer has a host-side USB port and you want to use USB devices. You then need to say Y to at least one of the Host Controller Driver (HCD) options below. Choose a USB 1.1 controller, such as "UHCI HCD support" or "OHCI HCD support", and "EHCI HCD (USB 2.0) support" except for older systems that do not have USB 2.0 support. It doesn't normally hurt to select them all if you are not certain.
+If your system has a device-side USB port, used in the peripheral side of the USB protocol, see the "USB Gadget" framework instead.
+After choosing your HCD, then select drivers for the USB peripherals you'll be using. You may want to check out the information provided in Documentation/usb/ and especially the links given in Documentation/usb/usb-help.txt.
+To compile this driver as a module, choose M here: the module will be called usbcore.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_USB_ARCH_HAS_HCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support for Host-side USB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_HAS_DMA &amp;&amp; CONFIG_HAS_IOMEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xHCI HCD (USB 3.0) support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The eXtensible Host Controller Interface (xHCI) is standard for USB 3.0 "SuperSpeed" host controller hardware.
+To compile this driver as a module, choose M here: the module will be called xhci-hcd.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_USB_XHCI_MVEBU=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say 'Y' to enable the support for the xHCI host controller found in Marvell Armada 375/38x ARM SOCs.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_HAS_IOMEM ) &amp;&amp; ( CONFIG_ARCH_MVEBU || CONFIG_COMPILE_TEST )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xHCI support for Marvell Armada 375/38x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_USB_EHCI_HCD=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Enhanced Host Controller Interface (EHCI) is standard for USB 2.0 "high speed" (480 Mbit/sec, 60 Mbyte/sec) host controller hardware. If your USB host controller supports USB 2.0, you will likely want to configure this Host Controller Driver.
+EHCI controllers are packaged with "companion" host controllers (OHCI or UHCI) to handle USB 1.1 devices connected to root hub ports. Ports will connect to EHCI if the device is high speed, otherwise they connect to a companion controller. If you configure EHCI, you should probably configure the OHCI (for NEC and some other vendors) USB Host Controller Driver or UHCI (for Via motherboards) Host Controller Driver too.
+You may want to read Documentation/usb/ehci.txt.
+To compile this driver as a module, choose M here: the module will be called ehci-hcd.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_USB_EHCI_ROOT_HUB_TT=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EHCI HCD (USB 2.0) support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Root Hub Transaction Translators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_USB_EHCI_HCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some EHCI chips have vendor-specific extensions to integrate transaction translators, so that no OHCI or UHCI companion controller is needed. It's safe to say "y" even if your controller doesn't support this feature.
+This supports the EHCI implementation that's originally from ARC, and has since changed hands a few times.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_USB_STORAGE=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB Mass Storage support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say Y here if you want to connect USB mass storage devices to your computer's USB port. This is the driver you need for USB floppy drives, USB hard disks, USB tape drives, USB CD-ROMs, USB flash devices, and memory sticks, along with similar devices. This driver may also be used for some cameras and card readers.
+This option depends on 'SCSI' support being enabled, but you probably also need 'SCSI device support: SCSI disk support' (BLK_DEV_SD) for most USB storage devices.
+To compile this driver as a module, choose M here: the module will be called usb-storage.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MMC=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMC/SD/SDIO card support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This selects MultiMediaCard, Secure Digital and Secure Digital I/O support.
+If you want MMC/SD/SDIO support, you should say Y here and also to your specific host controller driver.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MMC_SDHCI=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secure Digital Host Controller Interface support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_HAS_DMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This selects the generic Secure Digital Host Controller Interface. It is used by manufacturers such as Texas Instruments(R), Ricoh(R) and Toshiba(R). Most controllers found in laptops are of this type.
+If you have a controller with this interface, say Y or M here. You also need to enable an appropriate bus interface.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MMC_SDHCI_PLTFM=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDHCI platform and OF driver helper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MMC_SDHCI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This selects the common helper functions support for Secure Digital Host Controller Interface based platform and OF drivers.
+If you have a controller with this interface, say Y or M here.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MMC_SDHCI_DOVE=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDHCI support on Marvell's Dove SoC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This selects the Secure Digital Host Controller Interface in Marvell's Dove SoC.
+If you have a controller with this interface, say Y or M here.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_ARCH_DOVE || CONFIG_MACH_DOVE ) &amp;&amp; ( CONFIG_MMC_SDHCI_PLTFM )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MMC_SDHCI_PXAV3=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_CLKDEV_LOOKUP ) &amp;&amp; ( CONFIG_MMC_SDHCI_PLTFM ) &amp;&amp; ( CONFIG_ARCH_BERLIN || CONFIG_ARCH_MMP || CONFIG_ARCH_MVEBU || CONFIG_COMPILE_TEST )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This selects the Marvell(R) PXAV3 SD Host Controller. If you have a MMP2 platform with SD Host Controller and a card slot, say Y or M here.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MMC_MVSDIO=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell MMP2 SD Host Controller support (PXAV3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell MMC/SD/SDIO host driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_PLAT_ORION ) &amp;&amp; ( CONFIG_OF )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This selects the Marvell SDIO host driver. SDIO may currently be found on the Kirkwood 88F6281 and 88F6192 SoC controllers.
+To compile this driver as a module, choose M here: the module will be called mvsdio.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NEW_LEDS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say Y to enable Linux LED support. This allows control of supported LEDs from both userspace and optionally, by kernel events (triggers).
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_LEDS_CLASS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED Class Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This option enables the led sysfs class in /sys/class/leds. You'll need this to do anything useful with LEDs. If unsure, say N.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_LEDS_GPIO=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED Support for GPIO connected LEDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_LEDS_CLASS ) &amp;&amp; ( CONFIG_GPIOLIB || CONFIG_COMPILE_TEST )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This option enables support for the LEDs connected to GPIO outputs. To be useful the particular board must have LEDs and they must be connected to the GPIO lines. The LEDs must be defined as platform devices and/or OpenFirmware platform devices. The code to use these bindings can be selected below.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_LEDS_TRIGGERS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED Trigger support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_LEDS_CLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This option enables trigger support for the leds class. These triggers allow kernel events to drive the LEDs and can be configured via sysfs. If unsure, say Y.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_LEDS_TRIGGER_TIMER=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This allows LEDs to be controlled by a programmable timer via sysfs. Some LED hardware can be programmed to start blinking the LED without any further software interaction. For more details read Documentation/leds/leds-class.txt.
+If unsure, say Y.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_LEDS_TRIGGERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED Timer Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_LEDS_TRIGGER_HEARTBEAT=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED Heartbeat Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This allows LEDs to be controlled by a CPU load average. The flash frequency is a hyperbolic function of the 1-minute load average. If unsure, say Y.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_RTC_CLASS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic RTC class support. If you say yes here, you will be allowed to plug one or more RTCs to your system. You will probably want to enable one or more of the interfaces below.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! CONFIG_S390 &amp;&amp; ! CONFIG_UML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real Time Clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_RTC_DRV_DS1307=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dallas/Maxim DS1307/37/38/39/40, ST M41T00, EPSON RX-8025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you say yes here you get support for various compatible RTC chips (often with battery backup) connected with I2C. This driver should handle DS1307, DS1337, DS1338, DS1339, DS1340, ST M41T00, EPSON RX-8025 and probably other chips. In some cases the RTC must already have been initialized (by manufacturing or a bootloader).
+The first seven registers on these chips hold an RTC, and other registers may add features such as NVRAM, a trickle charger for the RTC/NVRAM backup power, and alarms. NVRAM is visible in sysfs, but other chip features may not be available.
+This driver can also be built as a module. If so, the module will be called rtc-ds1307.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_RTC_DRV_PCF8563=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philips PCF8563/Epson RTC8564</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you say yes here you get support for the Philips PCF8563 RTC chip. The Epson RTC8564 should work as well.
+This driver can also be built as a module. If so, the module will be called rtc-pcf8563.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_RTC_DRV_S35390A=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seiko Instruments S-35390A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you say yes here you will get support for the Seiko Instruments S-35390A.
+This driver can also be built as a module. If so the module will be called rtc-s35390a.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_RTC_DRV_MV=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ARCH_DOVE || CONFIG_ARCH_MVEBU || CONFIG_COMPILE_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell SoC RTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you say yes here you will get support for the in-chip RTC that can be found in some of Marvell's SoC devices, such as the Kirkwood 88F6281 and 88F6192.
+This driver can also be built as a module. If so, the module will be called rtc-mv.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_RTC_DRV_ARMADA38X=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armada 38x Marvell SoC RTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ARCH_MVEBU || CONFIG_COMPILE_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you say yes here you will get support for the in-chip RTC that can be found in the Armada 38x Marvell's SoC device
+This driver can also be built as a module. If so, the module will be called armada38x-rtc.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_DMADEVICES=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA Engine support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DMA engines can do asynchronous data transfers without involving the host CPU. Currently, this framework can be used to offload memory copies in the network stack and RAID operations in the MD driver. This menu only presents DMA Device drivers supported by the configured arch, it may be empty in some cases.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MV_XOR=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_PLAT_ORION || CONFIG_ARCH_MVEBU || CONFIG_COMPILE_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvell XOR engine support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable support for the Marvell XOR engine.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MEMORY=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory Controller drivers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_EXT4_FS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Extended 4 (ext4) filesystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is the next generation of the ext3 filesystem.
+Unlike the change from ext2 filesystem to ext3 filesystem, the on-disk format of ext4 is not forwards compatible with ext3; it is based on extent maps and it supports 48-bit physical block numbers. The ext4 filesystem also supports delayed allocation, persistent preallocation, high resolution time stamps, and a number of other features to improve performance and speed up fsck time. For more information, please see the web pages at http://ext4.wiki.kernel.org.
+The ext4 filesystem supports mounting an ext3 filesystem; while there are some performance gains from the delayed allocation and inode table readahead, the best performance gains require enabling ext4 features in the filesystem using tune2fs, or formatting a new filesystem as an ext4 filesystem initially. Without explicit enabling of ext4 features, the on disk filesystem format stays fully backward compatible.
+To compile this file system support as a module, choose M here. The module will be called ext4.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ISO9660_FS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISO 9660 CDROM file system support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is the standard file system used on CD-ROMs. It was previously known as "High Sierra File System" and is called "hsfs" on other Unix systems. The so-called Rock-Ridge extensions which allow for long Unix filenames and symbolic links are also supported by this driver. If you have a CD-ROM drive and want to do more with it than just listen to audio CDs and watch its LEDs, say Y (and read Documentation/filesystems/isofs.txt and the CD-ROM-HOWTO, available from http://www.tldp.org/docs.html#howto), thereby enlarging your kernel by about 27 KB; otherwise say N.
+To compile this file system support as a module, choose M here: the module will be called isofs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_JOLIET=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microsoft Joliet CDROM extensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Joliet is a Microsoft extension for the ISO 9660 CD-ROM file system which allows for long filenames in unicode format (unicode is the new 16 bit character code, successor to ASCII, which encodes the characters of almost all languages of the world; see http://www.unicode.org/ for more information). Say Y here if you want to be able to read Joliet CD-ROMs under Linux.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ISO9660_FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_UDF_FS=m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDF file system support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a file system used on some CD-ROMs and DVDs. Since the file system is supported by multiple operating systems and is more compatible with standard unix file systems, it is also suitable for removable USB disks. Say Y if you intend to mount DVD discs or CDRW's written in packet mode, or if you want to use UDF for removable USB disks. Please read Documentation/filesystems/udf.txt.
+To compile this file system support as a module, choose M here: the module will be called udf.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MSDOS_FS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This allows you to mount MSDOS partitions of your hard drive (unless they are compressed; to access compressed MSDOS partitions under Linux, you can either use the DOS emulator DOSEMU, described in the DOSEMU-HOWTO, available from http://www.tldp.org/docs.html#howto, or try dmsdosfs in &lt;ftp://ibiblio.org/pub/Linux/system/filesystems/dosfs/&gt;. If you intend to use dosemu with a non-compressed MSDOS partition, say Y here) and MSDOS floppies. This means that file access becomes transparent, i.e. the MSDOS files look and behave just like all other Unix files.
+If you have Windows 95 or Windows NT installed on your MSDOS partitions, you should use the VFAT file system (say Y to "VFAT fs support" below), or you will not be able to see the long filenames generated by Windows 95 / Windows NT.
+This option will enlarge your kernel by about 7 KB. If unsure, answer Y. This will only work if you said Y to "DOS FAT fs support" as well. To compile this as a module, choose M here: the module will be called msdos.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSDOS fs support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_VFAT_FS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFAT (Windows-95) fs support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This option provides support for normal Windows file systems with long filenames. That includes non-compressed FAT-based file systems used by Windows 95, Windows 98, Windows NT 4.0, and the Unix programs from the mtools package.
+The VFAT support enlarges your kernel by about 10 KB and it only works if you said Y to the "DOS FAT fs support" above. Please read the file Documentation/filesystems/vfat.txt for details. If unsure, say Y.
+To compile this as a module, choose M here: the module will be called vfat.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_TMPFS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tmpfs virtual memory file system support (former shm fs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SHMEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tmpfs is a file system which keeps all files in virtual memory.
+Everything in tmpfs is temporary in the sense that no files will be created on your hard drive. The files live in memory and swap space. If you unmount a tmpfs instance, everything stored therein is lost.
+See Documentation/filesystems/tmpfs.txt for details.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NFS_FS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFS client support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_INET &amp;&amp; CONFIG_FILE_LOCKING &amp;&amp; CONFIG_MULTIUSER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose Y here if you want to access files residing on other computers using Sun's Network File System protocol. To compile this file system support as a module, choose M here: the module will be called nfs.
+To mount file systems exported by NFS servers, you also need to install the user space mount.nfs command which can be found in the Linux nfs-utils package, available from http://linux-nfs.org/. Information about using the mount command is available in the mount(8) man page. More detail about the Linux NFS client implementation is available via the nfs(5) man page.
+Below you can choose which versions of the NFS protocol are available in the kernel to mount NFS servers. Support for NFS version 2 (RFC 1094) is always available when NFS_FS is selected.
+To configure a system which mounts its root file system via NFS at boot time, say Y here, select "Kernel level IP autoconfiguration" in the NETWORK menu, and select "Root file system on NFS" below. You cannot compile this file system as a module in this case.
+If unsure, say N.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ROOT_NFS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NFSD=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Root file system on NFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NFS_FS = CONFIG_y &amp;&amp; CONFIG_IP_PNP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you want your system to mount its root file system via NFS, choose Y here. This is common practice for managing systems without local permanent storage. For details, read Documentation/filesystems/nfsroot.txt.
+Most people say N here.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1229,7 +2414,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1372,11 +2557,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1394,6 +2590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1673,38 +2870,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="43.5" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="5" max="5" width="52.5" customWidth="1"/>
+    <col min="6" max="6" width="51.1640625" customWidth="1"/>
     <col min="7" max="7" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="208" x14ac:dyDescent="0.2">
@@ -1712,19 +2909,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -1732,19 +2929,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -1752,19 +2949,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -1772,97 +2969,99 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="128" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="D7" s="1">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="208" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="192" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="80" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="384" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="368" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -1870,39 +3069,39 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="272" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="256" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
@@ -1910,19 +3109,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
@@ -1930,175 +3129,265 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="160" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>260</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="288" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="25" spans="2:7" ht="160" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="F25" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="9"/>
+        <v>109</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="240" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2110,437 +3399,517 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="29" spans="2:7" ht="144" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="F29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="2:7" ht="272" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="2:7" ht="144" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="32" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G32" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="33" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B33" s="8">
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G33" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="34" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B34" s="8">
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="2:7" ht="256" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="240" x14ac:dyDescent="0.2">
       <c r="B35" s="8">
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="2:7" ht="160" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="144" x14ac:dyDescent="0.2">
       <c r="B36" s="8">
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="2:7" ht="256" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="240" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="2:7" ht="336" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="320" x14ac:dyDescent="0.2">
       <c r="B38" s="8">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="2:7" ht="144" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B39" s="8">
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>286</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="2:7" ht="224" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="208" x14ac:dyDescent="0.2">
       <c r="B40" s="8">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="2:7" ht="208" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="192" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="2:7" ht="176" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="160" x14ac:dyDescent="0.2">
       <c r="B42" s="8">
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>174</v>
+        <v>289</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="2:7" ht="208" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B43" s="8">
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="2:7" ht="256" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="240" x14ac:dyDescent="0.2">
       <c r="B44" s="8">
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="2:7" ht="176" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="160" x14ac:dyDescent="0.2">
       <c r="B45" s="8">
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="2:7" ht="144" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B46" s="8">
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G46" s="9"/>
+        <v>153</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="47" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B47" s="8">
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" spans="2:7" ht="336" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="304" x14ac:dyDescent="0.2">
       <c r="B48" s="8">
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="2:7" ht="128" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B49" s="8">
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="2:7" ht="96" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B50" s="8">
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="2:7" ht="112" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B51" s="8">
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G51" s="9"/>
+        <v>167</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="52" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B52" s="8">
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G52" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="53" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B53" s="8">
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="256" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="240" x14ac:dyDescent="0.2">
       <c r="B54" s="8">
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -2548,17 +3917,17 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -2566,799 +3935,1235 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>272</v>
+        <v>185</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="80" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B57" s="8">
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2" t="s">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="256" x14ac:dyDescent="0.2">
       <c r="B58" s="8">
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="176" x14ac:dyDescent="0.2">
       <c r="B59" s="8">
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B60" s="8">
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B61" s="8">
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B62" s="8">
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="240" x14ac:dyDescent="0.2">
       <c r="B63" s="8">
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B64" s="8">
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B65" s="8">
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B66" s="8">
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B67" s="8">
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B68" s="8">
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B69" s="8">
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B70" s="8">
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B71" s="8">
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B72" s="8">
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E72" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="160" x14ac:dyDescent="0.2">
       <c r="B73" s="8">
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E73" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="409" x14ac:dyDescent="0.2">
       <c r="B74" s="8">
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="409" x14ac:dyDescent="0.2">
       <c r="B75" s="8">
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="9"/>
+        <v>361</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="8">
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>23</v>
+        <v>365</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E76" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B77" s="8">
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="256" x14ac:dyDescent="0.2">
       <c r="B78" s="8">
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B79" s="8">
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B80" s="8">
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>27</v>
+        <v>379</v>
       </c>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E80" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="304" x14ac:dyDescent="0.2">
       <c r="B81" s="8">
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B82" s="8">
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="192" x14ac:dyDescent="0.2">
       <c r="B83" s="8">
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>30</v>
+        <v>391</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E83" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="256" x14ac:dyDescent="0.2">
       <c r="B84" s="8">
         <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>31</v>
+        <v>395</v>
       </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E84" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B85" s="8">
         <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B86" s="8">
         <v>84</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B87" s="8">
         <v>85</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E87" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B88" s="8">
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B89" s="8">
         <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>36</v>
+        <v>412</v>
       </c>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E89" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B90" s="8">
         <v>88</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="368" x14ac:dyDescent="0.2">
       <c r="B91" s="8">
         <v>89</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>38</v>
+        <v>419</v>
       </c>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E91" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B92" s="8">
         <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="320" x14ac:dyDescent="0.2">
       <c r="B93" s="8">
         <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>40</v>
+        <v>426</v>
       </c>
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E93" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B94" s="8">
         <v>92</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E94" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="409" x14ac:dyDescent="0.2">
       <c r="B95" s="8">
         <v>93</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B96" s="8">
         <v>94</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>43</v>
+        <v>432</v>
       </c>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E96" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B97" s="8">
         <v>95</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E97" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="304" x14ac:dyDescent="0.2">
       <c r="B98" s="8">
         <v>96</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>45</v>
+        <v>445</v>
       </c>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E98" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B99" s="8">
         <v>97</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>46</v>
+        <v>447</v>
       </c>
       <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E99" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="240" x14ac:dyDescent="0.2">
       <c r="B100" s="8">
         <v>98</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>47</v>
+        <v>452</v>
       </c>
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E100" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B101" s="8">
         <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>48</v>
+        <v>455</v>
       </c>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E101" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="144" x14ac:dyDescent="0.2">
       <c r="B102" s="8">
         <v>100</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>49</v>
+        <v>458</v>
       </c>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E102" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B103" s="8">
         <v>101</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>50</v>
+        <v>462</v>
       </c>
       <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E103" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B104" s="8">
         <v>102</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B105" s="8">
         <v>103</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>52</v>
+        <v>470</v>
       </c>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E105" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B106" s="8">
         <v>104</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>53</v>
+        <v>473</v>
       </c>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E106" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B107" s="8">
         <v>105</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>54</v>
+        <v>478</v>
       </c>
       <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E107" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B108" s="8">
         <v>106</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>55</v>
+        <v>481</v>
       </c>
       <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E108" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B109" s="8">
         <v>107</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>56</v>
+        <v>484</v>
       </c>
       <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E109" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B110" s="8">
         <v>108</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>57</v>
+        <v>488</v>
       </c>
       <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E110" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="144" x14ac:dyDescent="0.2">
       <c r="B111" s="8">
         <v>109</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>58</v>
+        <v>492</v>
       </c>
       <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E111" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B112" s="8">
         <v>110</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>59</v>
+        <v>496</v>
       </c>
       <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E112" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B113" s="8">
         <v>111</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>60</v>
+        <v>499</v>
       </c>
       <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E113" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="240" x14ac:dyDescent="0.2">
       <c r="B114" s="8">
         <v>112</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>61</v>
+        <v>503</v>
       </c>
       <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E114" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B115" s="8">
         <v>113</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>62</v>
+        <v>506</v>
       </c>
       <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E115" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B116" s="8">
         <v>114</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>63</v>
+        <v>509</v>
       </c>
       <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E116" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B117" s="8">
         <v>115</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E117" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B118" s="8">
         <v>116</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>65</v>
+        <v>516</v>
       </c>
       <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="9"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E118" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B119" s="8">
         <v>117</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="9"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B120" s="8">
         <v>118</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="9"/>
+        <v>523</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="8">
         <v>119</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3370,127 +5175,207 @@
         <v>120</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="9"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="400" x14ac:dyDescent="0.2">
       <c r="B123" s="8">
         <v>121</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="9"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" ht="224" x14ac:dyDescent="0.2">
       <c r="B124" s="8">
         <v>122</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="9"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" ht="144" x14ac:dyDescent="0.2">
       <c r="B125" s="8">
         <v>123</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="9"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="192" x14ac:dyDescent="0.2">
       <c r="B126" s="8">
         <v>124</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="9"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" ht="384" x14ac:dyDescent="0.2">
       <c r="B127" s="8">
         <v>125</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="9"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" ht="224" x14ac:dyDescent="0.2">
       <c r="B128" s="8">
         <v>126</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="9"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" ht="176" x14ac:dyDescent="0.2">
       <c r="B129" s="8">
         <v>127</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="9"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" ht="409" x14ac:dyDescent="0.2">
       <c r="B130" s="8">
         <v>128</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="9"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B131" s="8">
         <v>129</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="9"/>
+        <v>557</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="8">
         <v>130</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3502,7 +5387,7 @@
         <v>131</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3514,7 +5399,7 @@
         <v>132</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3526,7 +5411,7 @@
         <v>133</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3538,7 +5423,7 @@
         <v>134</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3550,7 +5435,7 @@
         <v>135</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3562,7 +5447,7 @@
         <v>136</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -3574,7 +5459,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -3586,7 +5471,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -3598,7 +5483,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -3610,7 +5495,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -3622,7 +5507,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -3634,7 +5519,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -3646,7 +5531,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -3658,7 +5543,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -3680,7 +5565,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -3692,7 +5577,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -3704,7 +5589,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -3716,7 +5601,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -3728,7 +5613,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -3740,7 +5625,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -3752,7 +5637,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -3764,7 +5649,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -3776,7 +5661,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -3788,7 +5673,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -3800,7 +5685,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -3812,7 +5697,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -3824,7 +5709,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -3836,7 +5721,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -3848,7 +5733,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -3860,7 +5745,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -3872,7 +5757,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -3884,7 +5769,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -3896,7 +5781,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -3908,7 +5793,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -3920,7 +5805,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -3932,7 +5817,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -3944,7 +5829,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -3956,7 +5841,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -3968,7 +5853,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -3980,7 +5865,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -3992,7 +5877,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -4004,7 +5889,7 @@
         <v>173</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -4016,7 +5901,7 @@
         <v>174</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -4028,7 +5913,7 @@
         <v>175</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -4040,7 +5925,7 @@
         <v>176</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -4052,7 +5937,7 @@
         <v>177</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -4064,7 +5949,7 @@
         <v>178</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -4076,7 +5961,7 @@
         <v>179</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -4088,7 +5973,7 @@
         <v>180</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -4100,7 +5985,7 @@
         <v>181</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -4112,7 +5997,7 @@
         <v>182</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -4124,7 +6009,7 @@
         <v>183</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -4136,7 +6021,7 @@
         <v>184</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -4148,7 +6033,7 @@
         <v>185</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -4160,7 +6045,7 @@
         <v>186</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -4172,7 +6057,7 @@
         <v>187</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -4184,7 +6069,7 @@
         <v>188</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -4196,7 +6081,7 @@
         <v>189</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -4208,7 +6093,7 @@
         <v>190</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -4220,7 +6105,7 @@
         <v>191</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -4232,7 +6117,7 @@
         <v>192</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -4244,7 +6129,7 @@
         <v>193</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -4256,7 +6141,7 @@
         <v>194</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -4268,7 +6153,7 @@
         <v>195</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -4280,7 +6165,7 @@
         <v>196</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -4292,7 +6177,7 @@
         <v>197</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -4304,7 +6189,7 @@
         <v>198</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -4316,7 +6201,7 @@
         <v>199</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -4328,7 +6213,7 @@
         <v>200</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -4340,7 +6225,7 @@
         <v>201</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -4352,7 +6237,7 @@
         <v>202</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -4364,7 +6249,7 @@
         <v>203</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -4376,7 +6261,7 @@
         <v>204</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -4388,7 +6273,7 @@
         <v>205</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -4400,7 +6285,7 @@
         <v>206</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -4412,7 +6297,7 @@
         <v>207</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -4424,7 +6309,7 @@
         <v>208</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -4436,7 +6321,7 @@
         <v>209</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -4448,7 +6333,7 @@
         <v>210</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -4460,7 +6345,7 @@
         <v>211</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -4472,7 +6357,7 @@
         <v>212</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -4484,7 +6369,7 @@
         <v>213</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -4496,7 +6381,7 @@
         <v>214</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -4508,7 +6393,7 @@
         <v>215</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -4520,7 +6405,7 @@
         <v>216</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -4532,7 +6417,7 @@
         <v>217</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -4544,7 +6429,7 @@
         <v>218</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -4556,7 +6441,7 @@
         <v>219</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -4568,7 +6453,7 @@
         <v>220</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -4580,7 +6465,7 @@
         <v>221</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -4592,7 +6477,7 @@
         <v>222</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -4604,7 +6489,7 @@
         <v>223</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -4612,9 +6497,11 @@
       <c r="G225" s="9"/>
     </row>
     <row r="226" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="10"/>
+      <c r="B226" s="10">
+        <v>224</v>
+      </c>
       <c r="C226" s="11" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>

--- a/ceph/内核模块统计.xlsx
+++ b/ceph/内核模块统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="776">
   <si>
     <t>CONFIG_MACH_ARMADA_38X=y</t>
   </si>
@@ -38,283 +38,16 @@
     <t># CONFIG_IOMMU_SUPPORT is not set</t>
   </si>
   <si>
-    <t>CONFIG_NFSD_V3=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NLS_CODEPAGE_437=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NLS_CODEPAGE_850=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NLS_ISO8859_1=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NLS_ISO8859_2=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NLS_UTF8=y</t>
-  </si>
-  <si>
-    <t>CONFIG_PRINTK_TIME=y</t>
-  </si>
-  <si>
-    <t>CONFIG_DEBUG_INFO=y</t>
-  </si>
-  <si>
-    <t>CONFIG_DEBUG_FS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MAGIC_SYSRQ=y</t>
-  </si>
-  <si>
     <t># CONFIG_SCHED_DEBUG is not set</t>
   </si>
   <si>
-    <t>CONFIG_TIMER_STATS=y</t>
-  </si>
-  <si>
     <t># CONFIG_DEBUG_BUGVERBOSE is not set</t>
   </si>
   <si>
-    <t>CONFIG_DEBUG_USER=y</t>
-  </si>
-  <si>
-    <t>CONFIG_IKCONFIG=y</t>
-  </si>
-  <si>
-    <t>CONFIG_IKCONFIG_PROC=y</t>
-  </si>
-  <si>
-    <t>CONFIG_CGROUP_FREEZER=y</t>
-  </si>
-  <si>
-    <t>CONFIG_CGROUP_PIDS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_CGROUP_DEVICE=y</t>
-  </si>
-  <si>
-    <t>CONFIG_CPUSETS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_PROC_PID_CPUSET=y</t>
-  </si>
-  <si>
-    <t>CONFIG_CGROUP_CPUACCT=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MEMCG=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MEMCG_SWAP=y</t>
-  </si>
-  <si>
     <t>CONFIG_MEMCG_SWAP_ENABLED=y</t>
   </si>
   <si>
     <t>CONFIG_MEMCG_KMEM=y</t>
-  </si>
-  <si>
-    <t>CONFIG_CGROUP_PERF=y</t>
-  </si>
-  <si>
-    <t>CONFIG_CGROUP_SCHED=y</t>
-  </si>
-  <si>
-    <t>CONFIG_FAIR_GROUP_SCHED=y</t>
-  </si>
-  <si>
-    <t>CONFIG_CFS_BANDWIDTH=y</t>
-  </si>
-  <si>
-    <t>CONFIG_RT_GROUP_SCHED=y</t>
-  </si>
-  <si>
-    <t>CONFIG_BLK_CGROUP=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NAMESPACES=y</t>
-  </si>
-  <si>
-    <t>CONFIG_UTS_NS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_IPC_NS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_USER_NS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_PID_NS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NET_NS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_RELAY=y</t>
-  </si>
-  <si>
-    <t>CONFIG_BLK_DEV_BSGLIB=y</t>
-  </si>
-  <si>
-    <t>CONFIG_SCHED_MC=y</t>
-  </si>
-  <si>
-    <t>CONFIG_KEXEC=y</t>
-  </si>
-  <si>
-    <t>CONFIG_ATAGS_PROC=y</t>
-  </si>
-  <si>
-    <t>CONFIG_CRASH_DUMP=y</t>
-  </si>
-  <si>
-    <t>CONFIG_BRIDGE=y</t>
-  </si>
-  <si>
-    <t>CONFIG_BRIDGE_IGMP_SNOOPING=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NET_SWITCHDEV=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NET_DSA=y</t>
-  </si>
-  <si>
-    <t>CONFIG_NET_DSA_HWMON=y</t>
-  </si>
-  <si>
-    <t>CONFIG_VLAN_8021Q=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MTD_CMDLINE_PARTS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MTD_UBI=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MTD_UBI_WL_THRESHOLD=4096</t>
-  </si>
-  <si>
-    <t>CONFIG_MTD_UBI_BEB_LIMIT=20</t>
-  </si>
-  <si>
-    <t>CONFIG_SRAM=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MD=y</t>
-  </si>
-  <si>
-    <t>CONFIG_BLK_DEV_MD=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MD_AUTODETECT=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MD_RAID0=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MD_RAID1=y</t>
-  </si>
-  <si>
-    <t>CONFIG_MD_RAID456=y</t>
-  </si>
-  <si>
-    <t>CONFIG_BLK_DEV_DM_BUILTIN=y</t>
-  </si>
-  <si>
-    <t>CONFIG_BLK_DEV_DM=y</t>
-  </si>
-  <si>
-    <t>CONFIG_E1000E=y</t>
-  </si>
-  <si>
-    <t>CONFIG_IXGB=y</t>
-  </si>
-  <si>
-    <t>CONFIG_IXGBE=y</t>
-  </si>
-  <si>
-    <t>CONFIG_IXGBE_HWMON=y</t>
-  </si>
-  <si>
-    <t>CONFIG_VGA_ARB=n</t>
-  </si>
-  <si>
-    <t>CONFIG_ASYNC_TX_DMA=y</t>
-  </si>
-  <si>
-    <t>CONFIG_UIO=y</t>
-  </si>
-  <si>
-    <t>CONFIG_BTRFS_FS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_AUTOFS4_FS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_FUSE_FS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_CEPH_LIB=y</t>
-  </si>
-  <si>
-    <t>CONFIG_CEPH_FS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_CEPH_FS_POSIX_ACL=y</t>
-  </si>
-  <si>
-    <t>CONFIG_BONDING=y</t>
-  </si>
-  <si>
-    <t>CONFIG_XFS_FS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_CGROUPS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_BLK_DEV_RBD=y</t>
-  </si>
-  <si>
-    <t>CONFIG_UBIFS_FS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_UBIFS_FS_LZO=y</t>
-  </si>
-  <si>
-    <t>CONFIG_UBIFS_FS_ZLIB=y</t>
-  </si>
-  <si>
-    <t>CONFIG_FRAME_POINTER=y</t>
-  </si>
-  <si>
-    <t>CONFIG_STACKTRACE=y</t>
-  </si>
-  <si>
-    <t>CONFIG_FUNCTION_TRACER=y</t>
-  </si>
-  <si>
-    <t>CONFIG_SCHED_TRACER=y</t>
-  </si>
-  <si>
-    <t>CONFIG_FTRACE_SYSCALLS=y</t>
-  </si>
-  <si>
-    <t>CONFIG_TRACER_SNAPSHOT=y</t>
-  </si>
-  <si>
-    <t>CONFIG_STACK_TRACER=y</t>
-  </si>
-  <si>
-    <t>CONFIG_BLK_DEV_IO_TRACE=y</t>
-  </si>
-  <si>
-    <t>CONFIG_UPROBE_EVENT=y</t>
-  </si>
-  <si>
-    <t>CONFIG_FUNCTION_PROFILER=y</t>
   </si>
   <si>
     <t>Y</t>
@@ -2183,10 +1916,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DMA Engine support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">DMA engines can do asynchronous data transfers without involving the host CPU. Currently, this framework can be used to offload memory copies in the network stack and RAID operations in the MD driver. This menu only presents DMA Device drivers supported by the configured arch, it may be empty in some cases.
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2368,6 +2097,1375 @@
   <si>
     <t>If you want your system to mount its root file system via NFS, choose Y here. This is common practice for managing systems without local permanent storage. For details, read Documentation/filesystems/nfsroot.txt.
 Most people say N here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choose Y here if you want to allow other computers to access files residing on this system using Sun's Network File System protocol. To compile the NFS server support as a module, choose M here: the module will be called nfsd.
+You may choose to use a user-space NFS server instead, in which case you can choose N here.
+To export local file systems using NFS, you also need to install user space programs which can be found in the Linux nfs-utils package, available from http://linux-nfs.org/. More detail about the Linux NFS server implementation is available via the exports(5) man page.
+Below you can choose which versions of the NFS protocol are available to clients mounting the NFS server on this system. Support for NFS version 2 (RFC 1094) is always available when NFSD is selected.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_INET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFS server support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NFSD_V3=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFS server support for NFS version 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NFSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This option enables support in your system's NFS server for version 3 of the NFS protocol (RFC 1813).
+If unsure, say Y.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NLS_CODEPAGE_437=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codepage 437 (United States, Canada)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The Microsoft FAT file system family can deal with filenames in native language character sets. These character sets are stored in so-called DOS codepages. You need to include the appropriate codepage if you want to be able to read/write these filenames on DOS/Windows partitions correctly. This does apply to the filenames only, not to the file contents. You can include several codepages; say Y here if you want to include the DOS codepage that is used in the United States and parts of Canada. This is recommended.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NLS_CODEPAGE_850=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codepage 850 (Europe)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Microsoft FAT file system family can deal with filenames in native language character sets. These character sets are stored in so-called DOS codepages. You need to include the appropriate codepage if you want to be able to read/write these filenames on DOS/Windows partitions correctly. This does apply to the filenames only, not to the file contents. You can include several codepages; say Y here if you want to include the DOS codepage that is used for much of Europe -- United Kingdom, Germany, Spain, Italy, and [add more countries here]. It has some characters useful to many European languages that are not part of the US codepage 437.
+If unsure, say Y.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NLS_ISO8859_1=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLS ISO 8859-1 (Latin 1; Western European Languages)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to display filenames with native language characters from the Microsoft FAT file system family or from JOLIET CD-ROMs correctly on the screen, you need to include the appropriate input/output character sets. Say Y here for the Latin 1 character set, which covers most West European languages such as Albanian, Catalan, Danish, Dutch, English, Faeroese, Finnish, French, German, Galician, Irish, Icelandic, Italian, Norwegian, Portuguese, Spanish, and Swedish. It is also the default for the US. If unsure, say Y.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NLS_ISO8859_2=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLS ISO 8859-2 (Latin 2; Slavic/Central European Languages)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to display filenames with native language characters from the Microsoft FAT file system family or from JOLIET CD-ROMs correctly on the screen, you need to include the appropriate input/output character sets. Say Y here for the Latin 2 character set, which works for most Latin-written Slavic and Central European languages: Czech, German, Hungarian, Polish, Rumanian, Croatian, Slovak, Slovene.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NLS_UTF8=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLS UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to display filenames with native language characters from the Microsoft FAT file system family or from JOLIET CD-ROMs correctly on the screen, you need to include the appropriate input/output character sets. Say Y here for the UTF-8 encoding of the Unicode/ISO9646 universal character set.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_PRINTK_TIME=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_PRINTK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show timing information on printks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selecting this option causes time stamps of the printk() messages to be added to the output of the syslog() system call and at the console.
+The timestamp is always recorded internally, and exported to /dev/kmsg. This flag just specifies if the timestamp should be included, not that the timestamp is recorded.
+The behavior is also controlled by the kernel command line parameter printk.time=1. See Documentation/admin-guide/kernel-parameters.rst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_DEBUG_INFO=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compile the kernel with debug info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_DEBUG_KERNEL &amp;&amp; ! CONFIG_COMPILE_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you say Y here the resulting kernel image will include debugging info resulting in a larger kernel image. This adds debug symbols to the kernel and modules (gcc -g), and is needed if you intend to use kernel crashdump or binary object tools like crash, kgdb, LKCD, gdb, etc on the kernel. Say Y here only if you plan to debug the kernel.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_DEBUG_FS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug Filesystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debugfs is a virtual file system that kernel developers use to put debugging files into. Enable this option to be able to read and write to these files.
+For detailed documentation on the debugfs API, see Documentation/filesystems/.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MAGIC_SYSRQ=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you say Y here, you will have some control over the system even if the system crashes for example during kernel debugging (e.g., you will be able to flush the buffer cache to disk, reboot the system immediately or dump some status information). A key for each of the possible requests is provided.
+This is the feature normally accomplished by pressing a key while holding SysRq (Alt+PrintScreen).
+On UML, this is accomplished by sending a "sysrq" command with mconsole, followed by the letter for the requested command.
+The keys are documented in Documentation/sysrq.txt. Don't say Y unless you really know what this hack does.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic SysRq key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MCONSOLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_DEBUG_USER=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_IKCONFIG_PROC=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CGROUP_PIDS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CGROUP_DEVICE=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CGROUP_CPUACCT=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MEMCG=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_TIMER_STATS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you say Y here, additional code will be inserted into the timer routines to collect statistics about kernel timers being reprogrammed. The statistics can be read from /proc/timer_stats. The statistics collection is started by writing 1 to /proc/timer_stats, writing 0 stops it. This feature is useful to collect information about timer usage patterns in kernel and userspace. This feature is lightweight if enabled in the kernel config but not activated (it defaults to deactivated on bootup and will only be activated if some application like powertop activates it explicitly).
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_DEBUG_KERNEL &amp;&amp; CONFIG_PROC_FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect kernel timers statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When a user program crashes due to an exception, the kernel can print a brief message explaining what the problem was. This is sometimes helpful for debugging but serves no purpose on a production system. Most people should say N here.
+In addition, you need to pass user_debug=N on the kernel command line to enable this feature. N consists of the sum of:
+1 - undefined instruction events 2 - system calls 4 - invalid data aborts 8 - SIGSEGV faults 16 - SIGBUS faults
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verbose user fault messages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_IKCONFIG=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This option enables the complete Linux kernel ".config" file contents to be saved in the kernel. It provides documentation of which kernel options are used in a running kernel or in an on-disk kernel. This information can be extracted from the kernel image file with the script scripts/extract-ikconfig and used as input to rebuild the current kernel or to build another kernel. It can also be extracted from a running kernel by reading /proc/config.gz if enabled (below).
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kernel .config support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This option enables access to the kernel configuration file through /proc/config.gz.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_IKCONFIG &amp;&amp; CONFIG_PROC_FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable access to .config through /proc/config.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CGROUP_FREEZER=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freezer cgroup subsystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides a way to freeze and unfreeze all tasks in a cgroup.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDs cgroup subsystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provides enforcement of process number limits in the scope of a cgroup. Any attempt to fork more processes than is allowed in the cgroup will fail. PIDs are fundamentally a global resource because it is fairly trivial to reach PID exhaustion before you reach even a conservative kmemcg limit. As a result, it is possible to grind a system to halt without being limited by other cgroup policies. The PIDs cgroup subsystem is designed to stop this from happening.
+It should be noted that organisational operations (such as attaching to a cgroup hierarchy will *not* be blocked by the PIDs subsystem), since the PIDs limit only affects a process's ability to fork, not to attach to a cgroup.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides a cgroup implementing whitelists for devices which a process in the cgroup can mknod or open.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device controller for cgroups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CPUSETS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cpuset support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This option will let you create and manage CPUSETs which allow dynamically partitioning a system into sets of CPUs and Memory Nodes and assigning tasks to run only within those sets. This is primarily useful on large SMP or NUMA systems.
+Say N if unsure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_PROC_PID_CPUSET=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Include legacy /proc//cpuset file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CPUSETS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides a simple Resource Controller for monitoring the total CPU consumed by the tasks in a cgroup.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple CPU accounting cgroup subsystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CGROUP_SCHED=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CGROUP_PERF=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable perf_event per-cpu per-container group (cgroup) monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_PERF_EVENTS &amp;&amp; CONFIG_CGROUPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This option extends the per-cpu mode to restrict monitoring to threads which belong to the cgroup specified and run on the designated cpu.
+Say N if unsure.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MEMCG_SWAP=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group CPU scheduler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This feature lets CPU scheduler recognize task groups and control CPU bandwidth allocation to such task groups. It uses cgroups to group tasks.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_FAIR_GROUP_SCHED=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group scheduling for SCHED_OTHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CGROUP_SCHED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CFS_BANDWIDTH=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU bandwidth provisioning for FAIR_GROUP_SCHED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_FAIR_GROUP_SCHED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This option allows users to define CPU bandwidth rates (limits) for tasks running within the fair group scheduler. Groups with no limit set are considered to be unconstrained and will run with no restriction. See tip/Documentation/scheduler/sched-bwc.txt for more information.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_RT_GROUP_SCHED=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group scheduling for SCHED_RR/FIFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This feature lets you explicitly allocate real CPU bandwidth to task groups. If enabled, it will also make it impossible to schedule realtime tasks for non-root users until you allocate realtime bandwidth for them. See Documentation/scheduler/sched-rt-group.txt for more information.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BLK_CGROUP=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic block IO controller cgroup interface. This is the common cgroup interface which should be used by various IO controlling policies.
+Currently, CFQ IO scheduler uses it to recognize task groups and control disk bandwidth allocation (proportional time slice allocation) to such task groups. It is also used by bio throttling logic in block layer to implement upper limit in IO rates on a device.
+This option only enables generic Block IO controller infrastructure. One needs to also enable actual IO controlling logic/policy. For enabling proportional weight division of disk bandwidth in CFQ, set CFQ_GROUP_IOSCHED=y; for enabling throttling policy, set BLK_DEV_THROTTLING=y.
+See Documentation/cgroups/blkio-controller.txt for more information.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BLOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block IO controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NAMESPACES=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_EXPERT ) &amp;&amp; ( CONFIG_MULTIUSER )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the way to make tasks work with different objects using the same id. For example same IPC id may refer to different objects or same user id or pid may refer to different tasks when used in different namespaces.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namespaces support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_UTS_NS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTS namespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In this namespace tasks see different info provided with the uname() system call
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_IPC_NS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_SYSVIPC || CONFIG_POSIX_MQUEUE )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In this namespace tasks work with IPC ids which correspond to different IPC objects in different namespaces.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC namespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_USER_NS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User namespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This allows containers, i.e. vservers, to use user namespaces to provide different user info for different servers.
+When user namespaces are enabled in the kernel it is recommended that the MEMCG option also be enabled and that user-space use the memory control groups to limit the amount of memory a memory unprivileged users can use.
+If unsure, say N.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_PID_NS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Support process id namespaces. This allows having multiple processes with the same pid as long as they are in different pid namespaces. This is a building block of containers.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID Namespaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NET_NS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network namespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow user space to create what appear to be multiple instances of the network stack.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_RELAY=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kernel-&gt;user space relay support (formerly relayfs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This option enables support for relay interface support in certain file systems (such as debugfs). It is designed to provide an efficient mechanism for tools and facilities to relay large amounts of data from kernel space to user space.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BLK_DEV_BSGLIB=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block layer SG support v4 helper lib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subsystems will normally enable this if needed. Users will not normally need to manually enable this.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SCHED_MC=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-core scheduler support improves the CPU scheduler's decision making when dealing with multi-core CPU chips at a cost of slightly increased overhead in some places. If unsure say N here.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-core scheduler support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONFIG_ARM_CPU_TOPOLOGY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_KEXEC=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kexec is a system call that implements the ability to shutdown your current kernel, and to start another kernel. It is like a reboot but it is independent of the system firmware. And like a reboot you can start any kernel with it, not just Linux.
+It is an ongoing process to be certain the hardware in a machine is properly shutdown, so do not be surprised if this code does not initially work for you.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>((! CONFIG_SMP || CONFIG_PM_SLEEP_SMP )) &amp;&amp; (! CONFIG_CPU_V7M )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kexec system call (EXPERIMENTAL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ATAGS_PROC=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export atags in procfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Should the atags used to boot the kernel be exported in an "atags" file in procfs. Useful with kexec.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ATAGS &amp;&amp; CONFIG_KEXEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CRASH_DUMP=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build kdump crash kernel (EXPERIMENTAL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate crash dump after being started by kexec. This should be normally only set in special crash dump kernels which are loaded in the main kernel with kexec-tools into a specially reserved region and then later executed after a crash by kdump/kexec. The crash dump kernel must be compiled to a memory address not used by the main kernel
+For more details see Documentation/kdump/kdump.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BRIDGE=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you say Y here, then your Linux box will be able to act as an Ethernet bridge, which means that the different Ethernet segments it is connected to will appear as one Ethernet to the participants. Several such bridges can work together to create even larger networks of Ethernets using the IEEE 802.1 spanning tree algorithm. As this is a standard, Linux bridges will cooperate properly with other third party bridge products.
+In order to use the Ethernet bridge, you'll need the bridge configuration tools; see Documentation/networking/bridge.txt for location. Please read the Bridge mini-HOWTO for more information.
+If you enable iptables support along with the bridge support then you turn your bridge into a bridging IP firewall. iptables will then see the IP packets being bridged, so you need to take this into account when setting up your firewall rules. Enabling arptables support when bridging will let arptables see bridged ARP traffic in the arptables FORWARD chain.
+To compile this code as a module, choose M here: the module will be called bridge.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_IPV6 || CONFIG_IPV6 = CONFIG_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802.1d Ethernet Bridging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BRIDGE_IGMP_SNOOPING=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGMP/MLD snooping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you say Y here, then the Ethernet bridge will be able selectively forward multicast traffic based on IGMP/MLD traffic received from each port.
+Say N to exclude this support and reduce the binary size.
+If unsure, say Y.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_BRIDGE ) &amp;&amp; ( CONFIG_INET )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NET_SWITCHDEV=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This module allows for capturing the changes to TCP connection state in response to incoming packets. It is used for debugging TCP congestion avoidance modules. If you don't understand what was just said, you don't need it: say N.
+Documentation on how to use TCP connection probing can be found at:
+http://www.linuxfoundation.org/collaborate/workgroups/networking/tcpprobe
+To compile this code as a module, choose M here: the module will be called tcp_probe.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_INET &amp;&amp; CONFIG_PROC_FS &amp;&amp; CONFIG_KPROBES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP connection probing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NET_DSA=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed Switch Architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_HAVE_NET_DSA &amp;&amp; CONFIG_MAY_USE_DEVLINK ) &amp;&amp; ( CONFIG_BRIDGE || CONFIG_BRIDGE = CONFIG_n )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say Y if you want to enable support for the hardware switches supported by the Distributed Switch Architecture.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_NET_DSA_HWMON=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed Switch Architecture HWMON support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say Y if you want to expose thermal sensor data on switches supported by the Distributed Switch Architecture.
+Some of those switches contain thermal sensors. This data is available via the hwmon sysfs interface and exposes the onboard sensors.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONFIG_HWMON &amp;&amp; !( CONFIG_NET_DSA = CONFIG_y &amp;&amp; CONFIG_HWMON = CONFIG_m )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_VLAN_8021Q=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802.1Q/802.1ad VLAN Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select this and you will be able to create 802.1Q VLAN interfaces on your Ethernet interfaces. 802.1Q VLAN supports almost everything a regular Ethernet interface does, including firewalling, bridging, and of course IP traffic. You will need the 'ip' utility in order to effectively use VLANs. See the VLAN web page for more information: http://www.candelatech.com/~greear/vlan.html
+To compile this code as a module, choose M here: the module will be called 8021q.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MTD_CMDLINE_PARTS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command line partition table parsing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allow generic configuration of the MTD partition tables via the kernel command line. Multiple flash resources are supported for hardware where different kinds of flash memory are available.
+You will still need the parsing functions to be called by the driver for your particular device. It won't happen automatically. The SA1100 map driver (MTD_SA1100) has an option for this, for example.
+The format for the command line is as follows:
+mtdparts=&lt;mtddef&gt;[;&lt;mtddef] &lt;mtddef&gt; := &lt;mtd-id&gt;:&lt;partdef&gt;[,&lt;partdef&gt;] &lt;partdef&gt; := &lt;size&gt;[@offset][&lt;name&gt;][ro] &lt;mtd-id&gt; := unique id used in mapping driver/device &lt;size&gt; := standard linux memsize OR "-" to denote all remaining space &lt;name&gt; := (NAME)
+Due to the way Linux handles the command line, no spaces are allowed in the partition definition, including mtd id's and partition names.
+Examples:
+1 flash resource (mtd-id "sa1100"), with 1 single writable partition: mtdparts=sa1100:-
+Same flash, but 2 named partitions, the first one being read-only: mtdparts=sa1100:256k(ARMboot)ro,-(root)
+If unsure, say 'N'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MTD_UBI=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable UBI - Unsorted block images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBI is a software layer above MTD layer which admits use of LVM-like logical volumes on top of MTD devices, hides some complexities of flash chips like wear and bad blocks and provides some other useful capabilities. Please, consult the MTD web site for more details (www.linux-mtd.infradead.org).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MTD_UBI_WL_THRESHOLD=4096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBI wear-leveling threshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This parameter defines the maximum difference between the highest erase counter value and the lowest erase counter value of eraseblocks of UBI devices. When this threshold is exceeded, UBI starts performing wear leveling by means of moving data from eraseblock with low erase counter to eraseblocks with high erase counter.
+The default value should be OK for SLC NAND flashes, NOR flashes and other flashes which have eraseblock life-cycle 100000 or more. However, in case of MLC NAND flashes which typically have eraseblock life-cycle less than 10000, the threshold should be lessened (e.g., to 128 or 256, although it does not have to be power of 2).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MTD_UBI_BEB_LIMIT=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum expected bad eraseblock count per 1024 eraseblocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This option specifies the maximum bad physical eraseblocks UBI expects on the MTD device (per 1024 eraseblocks). If the underlying flash does not admit of bad eraseblocks (e.g. NOR flash), this value is ignored.
+NAND datasheets often specify the minimum and maximum NVM (Number of Valid Blocks) for the flashes' endurance lifetime. The maximum expected bad eraseblocks per 1024 eraseblocks then can be calculated as "1024 * (1 - MinNVB / MaxNVB)", which gives 20 for most NANDs (MaxNVB is basically the total count of eraseblocks on the chip).
+To put it differently, if this value is 20, UBI will try to reserve about 1.9% of physical eraseblocks for bad blocks handling. And that will be 1.9% of eraseblocks on the entire NAND chip, not just the MTD partition UBI attaches. This means that if you have, say, a NAND flash chip admits maximum 40 bad eraseblocks, and it is split on two MTD partitions of the same size, UBI will reserve 40 eraseblocks when attaching a partition.
+This option can be overridden by the "mtd=" UBI module parameter or by the "attach" ioctl.
+Leave the default value if unsure.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SRAM=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generic on-chip SRAM driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This driver allows you to declare a memory region to be managed by the genalloc API. It is supposed to be used for small on-chip SRAM areas found on many SoCs.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MD=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple devices driver support (RAID and LVM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Support multiple physical spindles through a single logical device. Required for RAID and logical volume management.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BLK_DEV_MD=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>his driver lets you combine several hard disk partitions into one logical block device. This can be used to simply append one partition to another one or to combine several redundant hard disks into a RAID1/4/5 device so as to provide protection against hard disk failures. This is called "Software RAID" since the combining of the partitions is done by the kernel. "Hardware RAID" means that the combining is done by a dedicated controller; if you have such a controller, you do not need to say Y here.
+More information about Software RAID on Linux is contained in the Software RAID mini-HOWTO, available from http://www.tldp.org/docs.html#howto. There you will also learn where to get the supporting user space utilities raidtools.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAID support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MD_RAID0=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MD_AUTODETECT=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autodetect RAID arrays during kernel boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BLK_DEV_MD = CONFIG_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you say Y here, then the kernel will try to autodetect raid arrays as part of its boot process.
+If you don't use raid and say Y, this autodetection can cause a several-second delay in the boot time due to various synchronisation steps that are part of this step.
+If unsure, say Y.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MD_RAID1=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BLK_DEV_MD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you say Y here, then your multiple devices driver will be able to use the so-called raid0 mode, i.e. it will combine the hard disk partitions into one logical device in such a fashion as to fill them up evenly, one chunk here and one chunk there. This will increase the throughput rate if the partitions reside on distinct disks.
+Information about Software RAID on Linux is contained in the Software-RAID mini-HOWTO, available from http://www.tldp.org/docs.html#howto. There you will also learn where to get the supporting user space utilities raidtools.
+To compile this as a module, choose M here: the module will be called raid0.
+If unsure, say Y.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAID-0 (striping) mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A RAID-1 set consists of several disk drives which are exact copies of each other. In the event of a mirror failure, the RAID driver will continue to use the operational mirrors in the set, providing an error free MD (multiple device) to the higher levels of the kernel. In a set with N drives, the available space is the capacity of a single drive, and the set protects against a failure of (N - 1) drives.
+Information about Software RAID on Linux is contained in the Software-RAID mini-HOWTO, available from http://www.tldp.org/docs.html#howto. There you will also learn where to get the supporting user space utilities raidtools.
+If you want to use such a RAID-1 set, say Y. To compile this code as a module, choose M here: the module will be called raid1.
+If unsure, say Y.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAID-1 (mirroring) mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MD_RAID456=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAID-4/RAID-5/RAID-6 mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A RAID-5 set of N drives with a capacity of C MB per drive provides the capacity of C * (N - 1) MB, and protects against a failure of a single drive. For a given sector (row) number, (N - 1) drives contain data sectors, and one drive contains the parity protection. For a RAID-4 set, the parity blocks are present on a single drive, while a RAID-5 set distributes the parity across the drives in one of the available parity distribution methods.
+A RAID-6 set of N drives with a capacity of C MB per drive provides the capacity of C * (N - 2) MB, and protects against a failure of any two drives. For a given sector (row) number, (N - 2) drives contain data sectors, and two drives contains two independent redundancy syndromes. Like RAID-5, RAID-6 distributes the syndromes across the drives in one of the available parity distribution methods.
+Information about Software RAID on Linux is contained in the Software-RAID mini-HOWTO, available from http://www.tldp.org/docs.html#howto. There you will also learn where to get the supporting user space utilities raidtools.
+If you want to use such a RAID-4/RAID-5/RAID-6 set, say Y. To compile this code as a module, choose M here: the module will be called raid456.
+If unsure, say Y.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BLK_DEV_DM_BUILTIN=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BLK_DEV_DM=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_DAX || CONFIG_DAX = CONFIG_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device mapper support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device-mapper is a low level volume manager. It works by allowing people to specify mappings for ranges of logical sectors. Various mapping types are available, in addition people may write their own modules containing custom mappings if they wish.
+Higher level volume managers such as LVM2 use this driver.
+To compile this as a module, choose M here: the module will be called dm-mod.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_E1000E=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_PCI &amp;&amp; (! CONFIG_SPARC32 || CONFIG_BROKEN )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel(R) PRO/1000 PCI-Express Gigabit Ethernet support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This driver supports the PCI-Express Intel(R) PRO/1000 gigabit ethernet family of adapters. For PCI or PCI-X e1000 adapters, use the regular e1000 driver For more information on how to identify your adapter, go to the Adapter &amp; Driver ID Guide that can be located at:
+http://support.intel.com
+To compile this driver as a module, choose M here. The module will be called e1000e.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_IXGB=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel(R) PRO/10GbE support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_PCI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This driver supports Intel(R) PRO/10GbE family of adapters for PCI-X type cards. For PCI-E type cards, use the "ixgbe" driver instead. For more information on how to identify your adapter, go to the Adapter &amp; Driver ID Guide that can be located at:
+http://support.intel.com
+More specific information on configuring the driver is in Documentation/networking/ixgb.txt.
+To compile this driver as a module, choose M here. The module will be called ixgb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_IXGBE=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel(R) 10GbE PCI Express adapters support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This driver supports Intel(R) 10GbE PCI Express family of adapters. For more information on how to identify your adapter, go to the Adapter &amp; Driver ID Guide that can be located at:
+http://support.intel.com
+To compile this driver as a module, choose M here. The module will be called ixgbe.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_IXGBE_HWMON=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel(R) 10GbE PCI Express adapters HWMON support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONFIG_IXGBE &amp;&amp; CONFIG_HWMON &amp;&amp; !( CONFIG_IXGBE = CONFIG_y &amp;&amp; CONFIG_HWMON = CONFIG_m )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Say Y if you want to expose the thermal sensor data on some of our cards, via a hwmon sysfs interface.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_VGA_ARB=n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Some "legacy" VGA devices implemented on PCI typically have the same hard-decoded addresses as they did on ISA. When multiple PCI devices are accessed at same time they need some kind of coordination. Please see Documentation/vgaarbiter.txt for more details. Select this to enable VGA arbiter.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_EXPERT ) &amp;&amp; (( CONFIG_PCI &amp;&amp; ! CONFIG_S390 ))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VGA Arbitration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ASYNC_TX_DMA=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offload support for the async_tx api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This allows the async_tx api to take advantage of offload engines for memcpy, memset, xor, and raid6 p+q operations. If your platform has a dma engine that can perform raid operations and you have enabled MD_RAID456 say Y.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_DMA_ENGINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_UIO=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Userspace I/O drivers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable this to allow the userspace driver core code to be built. This code allows userspace programs easy access to kernel interrupts and memory locations, allowing some drivers to be written in userspace. Note that a small kernel driver is also required for interrupt handling to work properly.
+If you don't know what to do here, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BTRFS_FS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Btrfs filesystem support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Btrfs is a general purpose copy-on-write filesystem with extents, writable snapshotting, support for multiple devices and many more features focused on fault tolerance, repair and easy administration.
+The filesystem disk format is no longer unstable, and it's not expected to change unless there are strong reasons to do so. If there is a format change, file systems with a unchanged format will continue to be mountable and usable by newer kernels.
+For more information, please see the web pages at http://btrfs.wiki.kernel.org.
+To compile this file system support as a module, choose M here. The module will be called btrfs.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_AUTOFS4_FS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kernel automounter version 4 support (also supports v3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The automounter is a tool to automatically mount remote file systems on demand. This implementation is partially kernel-based to reduce overhead in the already-mounted case; this is unlike the BSD automounter (amd), which is a pure user space daemon.
+To use the automounter you need the user-space tools from https://www.kernel.org/pub/linux/daemons/autofs/v4/; you also want to answer Y to "NFS file system support", below.
+To compile this support as a module, choose M here: the module will be called autofs4. You will need to add "alias autofs autofs4" to your modules configuration file.
+If you are not a part of a fairly large, distributed network or don't have a laptop which needs to dynamically reconfigure to the local network, you probably do not need an automounter, and can say N here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_FUSE_FS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUSE (Filesystem in Userspace) support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With FUSE it is possible to implement a fully functional filesystem in a userspace program.
+There's also a companion library: libfuse2. This library is available from the FUSE homepage: http://fuse.sourceforge.net/ although chances are your distribution already has that library installed if you've installed the "fuse" package itself.
+See Documentation/filesystems/fuse.txt for more information. See Documentation/Changes for needed library/utility version.
+If you want to develop a userspace FS, or if you want to use a filesystem based on FUSE, answer Y or M.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CEPH_LIB=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceph core library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose Y or M here to include cephlib, which provides the common functionality to both the Ceph filesystem and to the rados block device (rbd).
+More information at http://ceph.newdream.net/.
+If unsure, say N.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_INET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CEPH_FS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choose Y or M here to include support for mounting the experimental Ceph distributed file system. Ceph is an extremely scalable file system designed to provide high performance, reliable access to petabytes of storage.
+More information at http://ceph.newdream.net/.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceph distributed file system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CEPH_FS_POSIX_ACL=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CEPH_FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you say Y here, debug output will include a filename and line to aid debugging. This icnreases kernel size and slows execution slightly when debug call sites are enabled (e.g., via DYNAMIC_DEBUG).
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Include file:line in ceph debug output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BONDING=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonding driver support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_INET ) &amp;&amp; ( CONFIG_IPV6 || CONFIG_IPV6 = CONFIG_n )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Say 'Y' or 'M' if you wish to be able to 'bond' multiple Ethernet Channels together. This is called 'Etherchannel' by Cisco, 'Trunking' by Sun, 802.3ad by the IEEE, and 'Bonding' in Linux.
+The driver supports multiple bonding modes to allow for both high performance and high availability operation.
+Refer to Documentation/networking/bonding.txt for more information.
+To compile this driver as a module, choose M here: the module will be called bonding.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_XFS_FS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XFS filesystem support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XFS is a high performance journaling filesystem which originated on the SGI IRIX platform. It is completely multi-threaded, can support large files and large filesystems, extended attributes, variable block sizes, is extent based, and makes extensive use of Btrees (directories, extents, free space) to aid both performance and scalability.
+Refer to the documentation at http://oss.sgi.com/projects/xfs/ for complete details. This implementation is on-disk compatible with the IRIX version of XFS.
+To compile this file system support as a module, choose M here: the module will be called xfs. Be aware, however, that if the file system of your root partition is compiled as a module, you'll need to use an initial ramdisk (initrd) to boot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_BLOCK ) &amp;&amp; (( CONFIG_64BIT || CONFIG_LBDAF ))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_CGROUPS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This option adds support for grouping sets of processes together, for use with process control subsystems such as Cpusets, CFS, memory controls or device isolation. See - Documentation/scheduler/sched-design-CFS.txt (CFS) - Documentation/cgroup-v1/ (features for grouping, isolation and resource control)
+Say N if unsure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control Group support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BLK_DEV_RBD=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Say Y here if you want include the Rados block device, which stripes a block device over objects stored in the Ceph distributed object store.
+More information at http://ceph.newdream.net/.
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_INET &amp;&amp; CONFIG_BLOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rados block device (RBD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_UBIFS_FS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UBIFS is a file system for flash devices which works on top of UBI.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MTD_UBI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UBIFS file system support
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_UBIFS_FS_LZO=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_UBIFS_FS_ADVANCED_COMPR ) &amp;&amp; ( CONFIG_UBIFS_FS )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LZO compression support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LZO compressor is generally faster than zlib but compresses worse. Say 'Y' if unsure.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_UBIFS_FS_ZLIB=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">( CONFIG_UBIFS_FS_ADVANCED_COMPR ) &amp;&amp; ( CONFIG_UBIFS_FS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZLIB compression support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zlib compresses better than LZO but it is slower. Say 'Y' if unsure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_FRAME_POINTER=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(! CONFIG_THUMB2_KERNEL ) &amp;&amp; (! CONFIG_ARM_UNWIND || CONFIG_FUNCTION_GRAPH_TRACER )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you say N here, the resulting kernel will be slightly smaller and faster. However, if neither FRAME_POINTER nor ARM_UNWIND are enabled, when a problem occurs with the kernel, the information that is reported is severely limited.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_STACKTRACE=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This option causes the kernel to create a /proc/pid/stack for every process, showing its current stack trace. It is also used by various kernel debugging features that require stack trace generation.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_STACKTRACE_SUPPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack backtrace support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_FUNCTION_TRACER=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kernel Function Tracer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable the kernel to trace every kernel function. This is done by using a compiler feature to insert a small, 5-byte No-Operation instruction at the beginning of every kernel function, which NOP sequence is then dynamically patched into a tracer call when tracing is enabled by the administrator. If it's runtime disabled (the bootup default), then the overhead of the instructions is very small and not measurable even in micro-benchmarks.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_SCHED_TRACER=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_FTRACE_SYSCALLS=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_HAVE_FUNCTION_TRACER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trace syscalls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic tracer to catch the syscall entry and exit events.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_HAVE_SYSCALL_TRACEPOINTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_TRACER_SNAPSHOT=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create a snapshot trace buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allow tracing users to take snapshot of the current buffer using the ftrace interface, e.g.:
+echo 1 &gt; /sys/kernel/debug/tracing/snapshot cat snapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_STACK_TRACER=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trace max stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This special tracer records the maximum stack footprint of the kernel and displays it in /sys/kernel/debug/tracing/stack_trace.
+This tracer works by hooking into every function call that the kernel executes, and keeping a maximum stack depth value and stack-trace saved. If this is configured with DYNAMIC_FTRACE then it will not have any overhead while the stack tracer is disabled.
+To enable the stack tracer on bootup, pass in 'stacktrace' on the kernel command line.
+The stack tracer can also be enabled or disabled via the sysctl kernel.stack_tracer_enabled
+Say N if unsure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_BLK_DEV_IO_TRACE=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support for tracing block IO actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Say Y here if you want to be able to trace the block layer actions on a given queue. Tracing allows you to see any traffic happening on a block device queue. For more information (and the userspace support tools needed), fetch the blktrace tools from:
+git://git.kernel.dk/blktrace.git
+Tracing also is possible using the ftrace interface, e.g.:
+echo 1 &gt; /sys/block/sda/sda1/trace/enable echo blk &gt; /sys/kernel/debug/tracing/current_tracer cat /sys/kernel/debug/tracing/trace_pipe
+If unsure, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_SYSFS ) &amp;&amp; ( CONFIG_BLOCK )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_UPROBE_EVENT=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable uprobes-based dynamic events</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( CONFIG_ARCH_SUPPORTS_UPROBES ) &amp;&amp; ( CONFIG_MMU ) &amp;&amp; ( CONFIG_PERF_EVENTS )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This allows the user to add tracing events on top of userspace dynamic events (similar to tracepoints) on the fly via the trace events interface. Those events can be inserted wherever uprobes can probe, and record various registers. This option is required if you plan to use perf-probe subcommand of perf tools on user space applications.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_FUNCTION_PROFILER=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kernel function profiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This option enables the kernel function profiler. A file is created in debugfs called function_profile_enabled which defaults to zero. When a 1 is echoed into this file profiling begins, and when a zero is entered, profiling stops. A "functions" file is created in the trace_stats directory; this file shows the list of functions that have been hit and their counters.
+If in doubt, say N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_FUNCTION_TRACER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2572,7 +3670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2591,6 +3689,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2870,8 +3971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2886,22 +3987,22 @@
     <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="208" x14ac:dyDescent="0.2">
@@ -2909,19 +4010,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -2929,19 +4030,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -2949,19 +4050,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -2969,19 +4070,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -2989,19 +4090,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>210</v>
+        <v>121</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="192" x14ac:dyDescent="0.2">
@@ -3009,19 +4110,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -3029,19 +4130,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="368" x14ac:dyDescent="0.2">
@@ -3049,19 +4150,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -3069,19 +4170,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="256" x14ac:dyDescent="0.2">
@@ -3089,19 +4190,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
@@ -3109,19 +4210,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
@@ -3129,19 +4230,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="48" x14ac:dyDescent="0.2">
@@ -3149,19 +4250,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>244</v>
+        <v>155</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="48" x14ac:dyDescent="0.2">
@@ -3169,19 +4270,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -3192,16 +4293,16 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -3209,19 +4310,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -3229,19 +4330,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -3249,19 +4350,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>254</v>
+        <v>165</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -3269,19 +4370,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>257</v>
+        <v>168</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>256</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="160" x14ac:dyDescent="0.2">
@@ -3289,19 +4390,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -3309,19 +4410,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>262</v>
+        <v>173</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="288" x14ac:dyDescent="0.2">
@@ -3329,19 +4430,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>264</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="160" x14ac:dyDescent="0.2">
@@ -3349,17 +4450,17 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -3367,19 +4468,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
@@ -3387,7 +4488,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3399,19 +4500,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>272</v>
+        <v>183</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>273</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -3419,19 +4520,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="272" x14ac:dyDescent="0.2">
@@ -3439,19 +4540,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -3459,19 +4560,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>279</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -3479,19 +4580,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>280</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -3499,19 +4600,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="32" x14ac:dyDescent="0.2">
@@ -3519,17 +4620,17 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>285</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -3537,19 +4638,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -3557,19 +4658,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -3577,19 +4678,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="320" x14ac:dyDescent="0.2">
@@ -3597,19 +4698,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -3617,19 +4718,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>286</v>
+        <v>197</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="208" x14ac:dyDescent="0.2">
@@ -3637,19 +4738,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>287</v>
+        <v>198</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>288</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="192" x14ac:dyDescent="0.2">
@@ -3660,16 +4761,16 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>288</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="160" x14ac:dyDescent="0.2">
@@ -3677,19 +4778,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -3697,17 +4798,17 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>291</v>
+        <v>202</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -3715,19 +4816,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="160" x14ac:dyDescent="0.2">
@@ -3735,17 +4836,17 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>294</v>
+        <v>205</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -3753,19 +4854,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -3773,17 +4874,17 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="304" x14ac:dyDescent="0.2">
@@ -3791,17 +4892,17 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>296</v>
+        <v>207</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -3809,17 +4910,17 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -3827,17 +4928,17 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -3845,17 +4946,17 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -3863,17 +4964,17 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -3881,17 +4982,17 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -3899,17 +5000,17 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -3917,17 +5018,17 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -3935,17 +5036,17 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -3953,17 +5054,17 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="256" x14ac:dyDescent="0.2">
@@ -3971,19 +5072,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="176" x14ac:dyDescent="0.2">
@@ -3991,19 +5092,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>304</v>
+        <v>215</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="48" x14ac:dyDescent="0.2">
@@ -4011,19 +5112,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -4031,19 +5132,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4051,19 +5152,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>313</v>
+        <v>224</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>315</v>
+        <v>226</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>314</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -4071,19 +5172,19 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>316</v>
+        <v>227</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>317</v>
+        <v>228</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>319</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -4091,16 +5192,16 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>322</v>
+        <v>233</v>
       </c>
       <c r="G64" s="9"/>
     </row>
@@ -4109,19 +5210,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>324</v>
+        <v>235</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -4129,19 +5230,19 @@
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>328</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -4149,19 +5250,19 @@
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>331</v>
+        <v>242</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>332</v>
+        <v>243</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>334</v>
+        <v>245</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="48" x14ac:dyDescent="0.2">
@@ -4169,19 +5270,19 @@
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>335</v>
+        <v>246</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>337</v>
+        <v>248</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4189,19 +5290,19 @@
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>339</v>
+        <v>250</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>341</v>
+        <v>252</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>340</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4209,19 +5310,19 @@
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>342</v>
+        <v>253</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>344</v>
+        <v>255</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>345</v>
+        <v>256</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>343</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -4229,19 +5330,19 @@
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>346</v>
+        <v>257</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>348</v>
+        <v>259</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>349</v>
+        <v>260</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>347</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -4249,17 +5350,17 @@
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>351</v>
+        <v>262</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>352</v>
+        <v>263</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>353</v>
+        <v>264</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="160" x14ac:dyDescent="0.2">
@@ -4267,17 +5368,17 @@
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>350</v>
+        <v>261</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>354</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="409" x14ac:dyDescent="0.2">
@@ -4285,19 +5386,19 @@
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>357</v>
+        <v>268</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>359</v>
+        <v>270</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="409" x14ac:dyDescent="0.2">
@@ -4305,19 +5406,19 @@
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>361</v>
+        <v>272</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>362</v>
+        <v>273</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>364</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
@@ -4325,17 +5426,17 @@
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>366</v>
+        <v>277</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>367</v>
+        <v>278</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>368</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -4343,19 +5444,19 @@
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>369</v>
+        <v>280</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>370</v>
+        <v>281</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>372</v>
+        <v>283</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>371</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="256" x14ac:dyDescent="0.2">
@@ -4363,19 +5464,19 @@
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>375</v>
+        <v>286</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -4383,19 +5484,19 @@
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>376</v>
+        <v>287</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>377</v>
+        <v>288</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -4403,17 +5504,17 @@
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>380</v>
+        <v>291</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>381</v>
+        <v>292</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>382</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="304" x14ac:dyDescent="0.2">
@@ -4421,19 +5522,19 @@
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>383</v>
+        <v>294</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>384</v>
+        <v>295</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>386</v>
+        <v>297</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>385</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -4441,19 +5542,19 @@
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>387</v>
+        <v>298</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>388</v>
+        <v>299</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>390</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="192" x14ac:dyDescent="0.2">
@@ -4461,17 +5562,17 @@
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>391</v>
+        <v>302</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>392</v>
+        <v>303</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>393</v>
+        <v>304</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>394</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="256" x14ac:dyDescent="0.2">
@@ -4479,17 +5580,17 @@
         <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>395</v>
+        <v>306</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>396</v>
+        <v>307</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -4497,19 +5598,19 @@
         <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>398</v>
+        <v>309</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>399</v>
+        <v>310</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -4517,19 +5618,19 @@
         <v>84</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>403</v>
+        <v>314</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4537,17 +5638,17 @@
         <v>85</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>404</v>
+        <v>315</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>407</v>
+        <v>318</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>405</v>
+        <v>316</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>406</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -4555,19 +5656,19 @@
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>408</v>
+        <v>319</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>409</v>
+        <v>320</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>410</v>
+        <v>321</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>411</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -4575,17 +5676,17 @@
         <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>412</v>
+        <v>323</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>413</v>
+        <v>324</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4593,19 +5694,19 @@
         <v>88</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="368" x14ac:dyDescent="0.2">
@@ -4613,17 +5714,17 @@
         <v>89</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>420</v>
+        <v>331</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>421</v>
+        <v>332</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -4631,19 +5732,19 @@
         <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>422</v>
+        <v>333</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>425</v>
+        <v>336</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>424</v>
+        <v>335</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>423</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="320" x14ac:dyDescent="0.2">
@@ -4651,17 +5752,17 @@
         <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>426</v>
+        <v>337</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>428</v>
+        <v>339</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -4669,17 +5770,17 @@
         <v>92</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>430</v>
+        <v>341</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>431</v>
+        <v>342</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="2:7" ht="409" x14ac:dyDescent="0.2">
@@ -4687,19 +5788,19 @@
         <v>93</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>433</v>
+        <v>344</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>437</v>
+        <v>348</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>434</v>
+        <v>345</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>435</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4707,17 +5808,17 @@
         <v>94</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>432</v>
+        <v>343</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>439</v>
+        <v>350</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>440</v>
+        <v>351</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>438</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -4725,17 +5826,17 @@
         <v>95</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>441</v>
+        <v>352</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>444</v>
+        <v>355</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>442</v>
+        <v>353</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>443</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="304" x14ac:dyDescent="0.2">
@@ -4743,17 +5844,17 @@
         <v>96</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>445</v>
+        <v>356</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>448</v>
+        <v>359</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>446</v>
+        <v>357</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>438</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -4761,17 +5862,17 @@
         <v>97</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>447</v>
+        <v>358</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>449</v>
+        <v>360</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>451</v>
+        <v>362</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>450</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -4779,17 +5880,17 @@
         <v>98</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>452</v>
+        <v>363</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>453</v>
+        <v>364</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>454</v>
+        <v>365</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -4797,17 +5898,17 @@
         <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>455</v>
+        <v>366</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>456</v>
+        <v>367</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>457</v>
+        <v>368</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>385</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -4815,17 +5916,17 @@
         <v>100</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>458</v>
+        <v>369</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>459</v>
+        <v>370</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>461</v>
+        <v>372</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>460</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -4833,17 +5934,17 @@
         <v>101</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>462</v>
+        <v>373</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>463</v>
+        <v>374</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>465</v>
+        <v>376</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>464</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -4851,19 +5952,19 @@
         <v>102</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>466</v>
+        <v>377</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>437</v>
+        <v>348</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>467</v>
+        <v>378</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>468</v>
+        <v>379</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>469</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4871,17 +5972,17 @@
         <v>103</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>470</v>
+        <v>381</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="13" t="s">
-        <v>474</v>
+        <v>385</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>472</v>
+        <v>383</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>471</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -4889,17 +5990,17 @@
         <v>104</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>473</v>
+        <v>384</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>475</v>
+        <v>386</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>477</v>
+        <v>388</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>476</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4907,17 +6008,17 @@
         <v>105</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>478</v>
+        <v>389</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
-        <v>480</v>
+        <v>391</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>479</v>
+        <v>390</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4925,17 +6026,17 @@
         <v>106</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>481</v>
+        <v>392</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>482</v>
+        <v>393</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -4943,17 +6044,17 @@
         <v>107</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>484</v>
+        <v>395</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>485</v>
+        <v>396</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>487</v>
+        <v>398</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>486</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4961,17 +6062,17 @@
         <v>108</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>488</v>
+        <v>399</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>489</v>
+        <v>400</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>491</v>
+        <v>402</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>490</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -4979,17 +6080,17 @@
         <v>109</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>492</v>
+        <v>403</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>495</v>
+        <v>406</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>493</v>
+        <v>404</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>494</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4997,17 +6098,17 @@
         <v>110</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>496</v>
+        <v>407</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>497</v>
+        <v>408</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>498</v>
+        <v>409</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>494</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -5015,17 +6116,17 @@
         <v>111</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>499</v>
+        <v>410</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>502</v>
+        <v>413</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>500</v>
+        <v>411</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>501</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -5033,17 +6134,17 @@
         <v>112</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>503</v>
+        <v>414</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>504</v>
+        <v>415</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>505</v>
+        <v>416</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -5051,17 +6152,17 @@
         <v>113</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>506</v>
+        <v>417</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>507</v>
+        <v>418</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>508</v>
+        <v>419</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -5069,17 +6170,17 @@
         <v>114</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>509</v>
+        <v>420</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>510</v>
+        <v>421</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>511</v>
+        <v>422</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -5087,17 +6188,17 @@
         <v>115</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>512</v>
+        <v>423</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>514</v>
+        <v>425</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>515</v>
+        <v>426</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>513</v>
+        <v>424</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -5105,17 +6206,17 @@
         <v>116</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>516</v>
+        <v>427</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>517</v>
+        <v>428</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>519</v>
+        <v>430</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>518</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -5123,19 +6224,19 @@
         <v>117</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>520</v>
+        <v>431</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>521</v>
+        <v>428</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>522</v>
+        <v>432</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>460</v>
+        <v>371</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="48" x14ac:dyDescent="0.2">
@@ -5143,19 +6244,19 @@
         <v>118</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>523</v>
+        <v>433</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>525</v>
+        <v>435</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>524</v>
+        <v>434</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.2">
@@ -5175,19 +6276,19 @@
         <v>120</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>527</v>
+        <v>437</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>528</v>
+        <v>438</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="400" x14ac:dyDescent="0.2">
@@ -5195,19 +6296,19 @@
         <v>121</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>529</v>
+        <v>439</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>530</v>
+        <v>440</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>531</v>
+        <v>441</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="224" x14ac:dyDescent="0.2">
@@ -5215,19 +6316,19 @@
         <v>122</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>535</v>
+        <v>445</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>533</v>
+        <v>443</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -5235,19 +6336,19 @@
         <v>123</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>536</v>
+        <v>446</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>535</v>
+        <v>445</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>537</v>
+        <v>447</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>538</v>
+        <v>448</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>539</v>
+        <v>449</v>
       </c>
     </row>
     <row r="126" spans="2:7" ht="192" x14ac:dyDescent="0.2">
@@ -5255,19 +6356,19 @@
         <v>124</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>535</v>
+        <v>445</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>541</v>
+        <v>451</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>542</v>
+        <v>452</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="2:7" ht="384" x14ac:dyDescent="0.2">
@@ -5275,19 +6376,19 @@
         <v>125</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>543</v>
+        <v>453</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>535</v>
+        <v>445</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>545</v>
+        <v>455</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>544</v>
+        <v>454</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="2:7" ht="224" x14ac:dyDescent="0.2">
@@ -5295,19 +6396,19 @@
         <v>126</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>546</v>
+        <v>456</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>535</v>
+        <v>445</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>547</v>
+        <v>457</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>548</v>
+        <v>458</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="2:7" ht="176" x14ac:dyDescent="0.2">
@@ -5315,19 +6416,19 @@
         <v>127</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>549</v>
+        <v>459</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>552</v>
+        <v>462</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>551</v>
+        <v>461</v>
       </c>
     </row>
     <row r="130" spans="2:7" ht="409" x14ac:dyDescent="0.2">
@@ -5335,19 +6436,19 @@
         <v>128</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>553</v>
+        <v>463</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>554</v>
+        <v>464</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>556</v>
+        <v>466</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>555</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -5355,200 +6456,285 @@
         <v>129</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>557</v>
+        <v>467</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>559</v>
+        <v>469</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>561</v>
+        <v>471</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" ht="320" x14ac:dyDescent="0.2">
       <c r="B132" s="8">
         <v>130</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="9"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B133" s="8">
         <v>131</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="9"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" ht="192" x14ac:dyDescent="0.2">
       <c r="B134" s="8">
         <v>132</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="9"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" ht="224" x14ac:dyDescent="0.2">
       <c r="B135" s="8">
         <v>133</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>5</v>
+        <v>482</v>
       </c>
       <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="9"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E135" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" ht="192" x14ac:dyDescent="0.2">
       <c r="B136" s="8">
         <v>134</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="9"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" ht="160" x14ac:dyDescent="0.2">
       <c r="B137" s="8">
         <v>135</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>7</v>
+        <v>488</v>
       </c>
       <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="9"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E137" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B138" s="8">
         <v>136</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>8</v>
+        <v>491</v>
       </c>
       <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="9"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E138" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" ht="176" x14ac:dyDescent="0.2">
       <c r="B139" s="8">
         <v>137</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>9</v>
+        <v>494</v>
       </c>
       <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="9"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E139" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B140" s="8">
         <v>138</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="9"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B141" s="8">
         <v>139</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="9"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E141" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" ht="256" x14ac:dyDescent="0.2">
       <c r="B142" s="8">
         <v>140</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>12</v>
+        <v>505</v>
       </c>
       <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="9"/>
+      <c r="E142" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="8">
         <v>141</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="9"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="2:7" ht="208" x14ac:dyDescent="0.2">
       <c r="B144" s="8">
         <v>142</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>14</v>
+        <v>515</v>
       </c>
       <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="9"/>
+      <c r="E144" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="8">
         <v>143</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:7" ht="208" x14ac:dyDescent="0.2">
       <c r="B146" s="8">
         <v>144</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>16</v>
+        <v>509</v>
       </c>
       <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="9"/>
+      <c r="E146" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="8">
@@ -5560,120 +6746,181 @@
       <c r="F147" s="1"/>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:7" ht="176" x14ac:dyDescent="0.2">
       <c r="B148" s="8">
         <v>146</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="9"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B149" s="8">
         <v>147</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="9"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B150" s="8">
         <v>148</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="9"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" ht="224" x14ac:dyDescent="0.2">
       <c r="B151" s="8">
         <v>149</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="9"/>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B152" s="8">
         <v>150</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="9"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B153" s="8">
         <v>151</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="9"/>
+        <v>534</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="8">
         <v>152</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="9"/>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B155" s="8">
         <v>153</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="9"/>
+        <v>513</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="8">
         <v>154</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>25</v>
+        <v>514</v>
       </c>
       <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="9"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="8">
         <v>155</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>26</v>
+        <v>547</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -5685,7 +6932,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -5697,743 +6944,1157 @@
         <v>157</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B160" s="8">
         <v>158</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="9"/>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B161" s="8">
         <v>159</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="9"/>
+        <v>542</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="8">
         <v>160</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="9"/>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B163" s="8">
         <v>161</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="9"/>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B164" s="8">
         <v>162</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="9"/>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" ht="336" x14ac:dyDescent="0.2">
       <c r="B165" s="8">
         <v>163</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="9"/>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B166" s="8">
         <v>164</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="9"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B167" s="8">
         <v>165</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="9"/>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B168" s="8">
         <v>166</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="9"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" ht="208" x14ac:dyDescent="0.2">
       <c r="B169" s="8">
         <v>167</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>38</v>
+        <v>575</v>
       </c>
       <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="9"/>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E169" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B170" s="8">
         <v>168</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>39</v>
+        <v>578</v>
       </c>
       <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="9"/>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E170" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B171" s="8">
         <v>169</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>40</v>
+        <v>581</v>
       </c>
       <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="9"/>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E171" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B172" s="8">
         <v>170</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="9"/>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B173" s="8">
         <v>171</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>42</v>
+        <v>588</v>
       </c>
       <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="9"/>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E173" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B174" s="8">
         <v>172</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>43</v>
+        <v>591</v>
       </c>
       <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="9"/>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E174" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" ht="176" x14ac:dyDescent="0.2">
       <c r="B175" s="8">
         <v>173</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="9"/>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B176" s="8">
         <v>174</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="9"/>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" ht="144" x14ac:dyDescent="0.2">
       <c r="B177" s="8">
         <v>175</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="9"/>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" ht="409" x14ac:dyDescent="0.2">
       <c r="B178" s="8">
         <v>176</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="9"/>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E178" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B179" s="8">
         <v>177</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="9"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" ht="256" x14ac:dyDescent="0.2">
       <c r="B180" s="8">
         <v>178</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="9"/>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B181" s="8">
         <v>179</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="9"/>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B182" s="8">
         <v>180</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="9"/>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" ht="246" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="8">
         <v>181</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="9"/>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" ht="409" x14ac:dyDescent="0.2">
       <c r="B184" s="8">
         <v>182</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>53</v>
+        <v>629</v>
       </c>
       <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="9"/>
+      <c r="E184" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B185" s="8">
         <v>183</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>54</v>
+        <v>632</v>
       </c>
       <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="9"/>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E185" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" ht="208" x14ac:dyDescent="0.2">
       <c r="B186" s="8">
         <v>184</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>55</v>
+        <v>635</v>
       </c>
       <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="9"/>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E186" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" ht="409" x14ac:dyDescent="0.2">
       <c r="B187" s="8">
         <v>185</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>56</v>
+        <v>638</v>
       </c>
       <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="9"/>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E187" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B188" s="8">
         <v>186</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="9"/>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="G188" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B189" s="8">
         <v>187</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="9"/>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" ht="272" x14ac:dyDescent="0.2">
       <c r="B190" s="8">
         <v>188</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>59</v>
+        <v>647</v>
       </c>
       <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="9"/>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E190" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B191" s="8">
         <v>189</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>60</v>
+        <v>651</v>
       </c>
       <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="9"/>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E191" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" ht="304" x14ac:dyDescent="0.2">
       <c r="B192" s="8">
         <v>190</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>61</v>
+        <v>650</v>
       </c>
       <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="9"/>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E192" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" ht="304" x14ac:dyDescent="0.2">
       <c r="B193" s="8">
         <v>191</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>62</v>
+        <v>655</v>
       </c>
       <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="9"/>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E193" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" ht="409" x14ac:dyDescent="0.2">
       <c r="B194" s="8">
         <v>192</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>63</v>
+        <v>661</v>
       </c>
       <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="9"/>
+      <c r="E194" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" s="8">
         <v>193</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>64</v>
+        <v>664</v>
       </c>
       <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="9"/>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E195" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" ht="208" x14ac:dyDescent="0.2">
       <c r="B196" s="8">
         <v>194</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="9"/>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="G196" s="9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" ht="160" x14ac:dyDescent="0.2">
       <c r="B197" s="8">
         <v>195</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="9"/>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" ht="208" x14ac:dyDescent="0.2">
       <c r="B198" s="8">
         <v>196</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>67</v>
+        <v>673</v>
       </c>
       <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="9"/>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E198" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G198" s="9" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" ht="144" x14ac:dyDescent="0.2">
       <c r="B199" s="8">
         <v>197</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>68</v>
+        <v>677</v>
       </c>
       <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="9"/>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E199" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B200" s="8">
         <v>198</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>69</v>
+        <v>680</v>
       </c>
       <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="9"/>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E200" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G200" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B201" s="8">
         <v>199</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>70</v>
+        <v>684</v>
       </c>
       <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="9"/>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E201" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G201" s="9" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B202" s="8">
         <v>200</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="9"/>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="G202" s="9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B203" s="8">
         <v>201</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>72</v>
+        <v>692</v>
       </c>
       <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="9"/>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E203" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G203" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" ht="288" x14ac:dyDescent="0.2">
       <c r="B204" s="8">
         <v>202</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>73</v>
+        <v>695</v>
       </c>
       <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="9"/>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E204" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G204" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" ht="320" x14ac:dyDescent="0.2">
       <c r="B205" s="8">
         <v>203</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="9"/>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" ht="240" x14ac:dyDescent="0.2">
       <c r="B206" s="8">
         <v>204</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>75</v>
+        <v>701</v>
       </c>
       <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="9"/>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E206" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G206" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" ht="144" x14ac:dyDescent="0.2">
       <c r="B207" s="8">
         <v>205</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="9"/>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E207" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B208" s="8">
         <v>206</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="9"/>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G208" s="9" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B209" s="8">
         <v>207</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="9"/>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" ht="208" x14ac:dyDescent="0.2">
       <c r="B210" s="8">
         <v>208</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>79</v>
+        <v>715</v>
       </c>
       <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="9"/>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E210" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="G210" s="9" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" ht="272" x14ac:dyDescent="0.2">
       <c r="B211" s="8">
         <v>209</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>80</v>
+        <v>719</v>
       </c>
       <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="9"/>
-    </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E211" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="G211" s="9" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B212" s="8">
         <v>210</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="9"/>
-    </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="G212" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B213" s="8">
         <v>211</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>82</v>
+        <v>726</v>
       </c>
       <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="9"/>
-    </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E213" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B214" s="8">
         <v>212</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>83</v>
+        <v>730</v>
       </c>
       <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="9"/>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E214" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="G214" s="9" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B215" s="8">
         <v>213</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>84</v>
+        <v>734</v>
       </c>
       <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="9"/>
+      <c r="E215" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G215" s="9" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B216" s="8">
         <v>214</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>85</v>
+        <v>738</v>
       </c>
       <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="9"/>
-    </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E216" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G216" s="9" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B217" s="8">
         <v>215</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>86</v>
+        <v>742</v>
       </c>
       <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="9"/>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G217" s="9" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B218" s="8">
         <v>216</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>87</v>
+        <v>745</v>
       </c>
       <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="9"/>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E218" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="G218" s="9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" ht="160" x14ac:dyDescent="0.2">
       <c r="B219" s="8">
         <v>217</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>88</v>
+        <v>749</v>
       </c>
       <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="9"/>
+      <c r="E219" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="G219" s="9" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B220" s="8">
         <v>218</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>89</v>
+        <v>752</v>
       </c>
       <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
       <c r="G220" s="9"/>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.2">
@@ -6441,72 +8102,108 @@
         <v>219</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>90</v>
+        <v>753</v>
       </c>
       <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="9"/>
-    </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E221" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G221" s="9" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B222" s="8">
         <v>220</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>91</v>
+        <v>758</v>
       </c>
       <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="9"/>
-    </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E222" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="G222" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" ht="272" x14ac:dyDescent="0.2">
       <c r="B223" s="8">
         <v>221</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>92</v>
+        <v>761</v>
       </c>
       <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="9"/>
-    </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E223" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G223" s="9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" ht="240" x14ac:dyDescent="0.2">
       <c r="B224" s="8">
         <v>222</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>93</v>
+        <v>764</v>
       </c>
       <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="9"/>
-    </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E224" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G224" s="9" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" ht="144" x14ac:dyDescent="0.2">
       <c r="B225" s="8">
         <v>223</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>94</v>
+        <v>768</v>
       </c>
       <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="9"/>
-    </row>
-    <row r="226" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E225" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="G225" s="9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" ht="145" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B226" s="10">
         <v>224</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>95</v>
+        <v>772</v>
       </c>
       <c r="D226" s="11"/>
-      <c r="E226" s="11"/>
-      <c r="F226" s="11"/>
-      <c r="G226" s="12"/>
+      <c r="E226" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="F226" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="G226" s="12" t="s">
+        <v>775</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ceph/内核模块统计.xlsx
+++ b/ceph/内核模块统计.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$D$1:$D$226</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="777">
   <si>
     <t>CONFIG_MACH_ARMADA_38X=y</t>
   </si>
@@ -74,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONFIG_MACH_DOVE=y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CONFIG_PCI=y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +90,6 @@
   </si>
   <si>
     <t>CONFIG_AEABI=y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG_HIGHMEM=y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,10 +123,6 @@
   <si>
     <t>The base address of an area of read/write memory in the target for the ROM-able zImage which must be available while the decompressor is running. It must be large enough to hold the entire decompressed kernel plus an additional 128 KiB. Platforms which normally make use of ROM-able zImage formats normally set this to a suitable value in their defconfig file.
 If ZBOOT_ROM is not enabled, this has no effect.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG_ARM_APPENDED_DTB=y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,10 +619,6 @@
   </si>
   <si>
     <t>NO.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y/N/M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1441,10 +1428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONFIG_ARMADA_THERMAL=y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Armada 370/XP thermal management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1523,15 +1506,6 @@
   </si>
   <si>
     <t>CONFIG_USB=y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal Serial Bus (USB) is a specification for a serial bus subsystem which offers higher speeds and more features than the traditional PC serial port. The bus supplies power to peripherals and allows for hot swapping. Up to 127 USB peripherals can be connected to a single USB host in a tree structure.
-The USB host is the root of the tree, the peripherals are the leaves and the inner nodes are special USB devices called hubs. Most PCs now have USB host ports, used to connect peripherals such as scanners, keyboards, mice, modems, cameras, disks, flash memory, network links, and printers to the PC.
-Say Y here if your computer has a host-side USB port and you want to use USB devices. You then need to say Y to at least one of the Host Controller Driver (HCD) options below. Choose a USB 1.1 controller, such as "UHCI HCD support" or "OHCI HCD support", and "EHCI HCD (USB 2.0) support" except for older systems that do not have USB 2.0 support. It doesn't normally hurt to select them all if you are not certain.
-If your system has a device-side USB port, used in the peripheral side of the USB protocol, see the "USB Gadget" framework instead.
-After choosing your HCD, then select drivers for the USB peripherals you'll be using. You may want to check out the information provided in Documentation/usb/ and especially the links given in Documentation/usb/usb-help.txt.
-To compile this driver as a module, choose M here: the module will be called usbcore.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3466,6 +3440,39 @@
   </si>
   <si>
     <t>CONFIG_FUNCTION_TRACER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ARMADA_THERMAL=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_MACH_DOVE=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_HIGHMEM=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ARM_APPENDED_DTB=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal Serial Bus (USB) is a specification for a serial bus subsystem which offers higher speeds and more features than the traditional PC serial port. The bus supplies power to peripherals and allows for hot swapping. Up to 127 USB peripherals can be connected to a single USB host in a tree structure.
+The USB host is the root of the tree, the peripherals are the leaves and the inner nodes are special USB devices called hubs. Most PCs now have USB host ports, used to connect peripherals such as scanners, keyboards, mice, modems, cameras, disks, flash memory, network links, and printers to the PC.
+Say Y here if your computer has a host-side USB port and you want to use USB devices. You then need to say Y to at least one of the Host Controller Driver (HCD) options below. Choose a USB 1.1 controller, such as "UHCI HCD support" or "OHCI HCD support", and "EHCI HCD (USB 2.0) support" except for older systems that do not have USB 2.0 support. It doesn't normally hurt to select them all if you are not certain.
+If your system has a device-side USB port, used in the peripheral side of the USB protocol, see the "USB Gadget" framework instead.
+After choosing your HCD, then select drivers for the USB peripherals you'll be using. You may want to check out the information provided in Documentation/usb/ and especially the links given in Documentation/usb/usb-help.txt.
+To compile this driver as a module, choose M here: the module will be called usbcore.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3971,14 +3978,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E225" sqref="E225"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="43.5" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="52.5" customWidth="1"/>
     <col min="6" max="6" width="51.1640625" customWidth="1"/>
     <col min="7" max="7" width="75.6640625" customWidth="1"/>
@@ -3987,22 +3994,22 @@
     <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>140</v>
+        <v>771</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="208" x14ac:dyDescent="0.2">
@@ -4010,19 +4017,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -4030,19 +4037,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -4050,19 +4057,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4070,19 +4077,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -4090,19 +4097,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="192" x14ac:dyDescent="0.2">
@@ -4110,19 +4117,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -4133,16 +4140,16 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="368" x14ac:dyDescent="0.2">
@@ -4156,13 +4163,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4176,13 +4183,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="256" x14ac:dyDescent="0.2">
@@ -4196,13 +4203,13 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
@@ -4210,19 +4217,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
@@ -4230,19 +4237,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="48" x14ac:dyDescent="0.2">
@@ -4250,19 +4257,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="G15" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="48" x14ac:dyDescent="0.2">
@@ -4270,19 +4277,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4296,13 +4303,13 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -4310,19 +4317,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -4330,19 +4337,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -4350,19 +4357,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>773</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -4370,19 +4377,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="160" x14ac:dyDescent="0.2">
@@ -4390,19 +4397,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -4410,19 +4417,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="288" x14ac:dyDescent="0.2">
@@ -4430,19 +4437,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="160" x14ac:dyDescent="0.2">
@@ -4450,17 +4457,17 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -4468,19 +4475,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>774</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
@@ -4488,7 +4495,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -4500,19 +4507,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -4520,19 +4527,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="272" x14ac:dyDescent="0.2">
@@ -4540,19 +4547,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>775</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -4560,19 +4567,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -4580,19 +4587,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -4600,19 +4607,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="32" x14ac:dyDescent="0.2">
@@ -4620,17 +4627,17 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -4638,19 +4645,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -4658,19 +4665,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -4678,19 +4685,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="320" x14ac:dyDescent="0.2">
@@ -4698,19 +4705,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -4718,19 +4725,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="208" x14ac:dyDescent="0.2">
@@ -4738,19 +4745,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="192" x14ac:dyDescent="0.2">
@@ -4764,13 +4771,13 @@
         <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="160" x14ac:dyDescent="0.2">
@@ -4778,19 +4785,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -4798,17 +4805,17 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -4816,19 +4823,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="160" x14ac:dyDescent="0.2">
@@ -4836,17 +4843,17 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -4854,19 +4861,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -4874,17 +4881,17 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="304" x14ac:dyDescent="0.2">
@@ -4892,17 +4899,17 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -4910,17 +4917,17 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4928,17 +4935,17 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -4946,17 +4953,17 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -4964,17 +4971,17 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -4982,17 +4989,17 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -5000,17 +5007,17 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="G54" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -5018,17 +5025,17 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -5036,17 +5043,17 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -5054,17 +5061,17 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="256" x14ac:dyDescent="0.2">
@@ -5072,19 +5079,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="176" x14ac:dyDescent="0.2">
@@ -5092,19 +5099,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="48" x14ac:dyDescent="0.2">
@@ -5112,19 +5119,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -5132,19 +5139,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -5152,19 +5159,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -5172,19 +5179,19 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -5192,16 +5199,16 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G64" s="9"/>
     </row>
@@ -5210,19 +5217,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -5230,19 +5237,19 @@
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -5250,19 +5257,19 @@
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="48" x14ac:dyDescent="0.2">
@@ -5270,19 +5277,19 @@
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -5290,19 +5297,19 @@
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -5310,19 +5317,19 @@
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -5330,19 +5337,19 @@
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -5350,17 +5357,17 @@
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="160" x14ac:dyDescent="0.2">
@@ -5368,17 +5375,17 @@
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="409" x14ac:dyDescent="0.2">
@@ -5386,19 +5393,19 @@
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="409" x14ac:dyDescent="0.2">
@@ -5406,19 +5413,19 @@
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
@@ -5426,17 +5433,17 @@
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -5444,19 +5451,19 @@
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="256" x14ac:dyDescent="0.2">
@@ -5464,19 +5471,19 @@
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -5484,19 +5491,19 @@
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -5504,17 +5511,17 @@
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="304" x14ac:dyDescent="0.2">
@@ -5522,19 +5529,19 @@
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -5542,19 +5549,19 @@
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="192" x14ac:dyDescent="0.2">
@@ -5562,17 +5569,17 @@
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="256" x14ac:dyDescent="0.2">
@@ -5580,17 +5587,17 @@
         <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -5598,19 +5605,19 @@
         <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -5618,19 +5625,19 @@
         <v>84</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -5638,17 +5645,17 @@
         <v>85</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -5656,19 +5663,19 @@
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -5676,17 +5683,17 @@
         <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -5694,19 +5701,19 @@
         <v>88</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>326</v>
+        <v>770</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="368" x14ac:dyDescent="0.2">
@@ -5714,17 +5721,17 @@
         <v>89</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -5732,19 +5739,19 @@
         <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="320" x14ac:dyDescent="0.2">
@@ -5752,17 +5759,17 @@
         <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -5770,17 +5777,17 @@
         <v>92</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="2:7" ht="409" x14ac:dyDescent="0.2">
@@ -5788,19 +5795,19 @@
         <v>93</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>345</v>
+        <v>776</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -5808,17 +5815,17 @@
         <v>94</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -5826,17 +5833,17 @@
         <v>95</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="304" x14ac:dyDescent="0.2">
@@ -5844,17 +5851,17 @@
         <v>96</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -5862,17 +5869,17 @@
         <v>97</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="100" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -5880,17 +5887,17 @@
         <v>98</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -5898,17 +5905,17 @@
         <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -5916,17 +5923,17 @@
         <v>100</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -5934,17 +5941,17 @@
         <v>101</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -5952,19 +5959,19 @@
         <v>102</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -5972,17 +5979,17 @@
         <v>103</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="13" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -5990,17 +5997,17 @@
         <v>104</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -6008,17 +6015,17 @@
         <v>105</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -6026,17 +6033,17 @@
         <v>106</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -6044,17 +6051,17 @@
         <v>107</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -6062,17 +6069,17 @@
         <v>108</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -6080,17 +6087,17 @@
         <v>109</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -6098,17 +6105,17 @@
         <v>110</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -6116,17 +6123,17 @@
         <v>111</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -6134,17 +6141,17 @@
         <v>112</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -6152,17 +6159,17 @@
         <v>113</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -6170,17 +6177,17 @@
         <v>114</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -6188,17 +6195,17 @@
         <v>115</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -6206,17 +6213,17 @@
         <v>116</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -6224,19 +6231,19 @@
         <v>117</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="48" x14ac:dyDescent="0.2">
@@ -6244,19 +6251,19 @@
         <v>118</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.2">
@@ -6276,19 +6283,19 @@
         <v>120</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="400" x14ac:dyDescent="0.2">
@@ -6296,19 +6303,19 @@
         <v>121</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="224" x14ac:dyDescent="0.2">
@@ -6316,19 +6323,19 @@
         <v>122</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -6336,19 +6343,19 @@
         <v>123</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="126" spans="2:7" ht="192" x14ac:dyDescent="0.2">
@@ -6356,19 +6363,19 @@
         <v>124</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D126" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="2:7" ht="384" x14ac:dyDescent="0.2">
@@ -6376,19 +6383,19 @@
         <v>125</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="2:7" ht="224" x14ac:dyDescent="0.2">
@@ -6396,19 +6403,19 @@
         <v>126</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129" spans="2:7" ht="176" x14ac:dyDescent="0.2">
@@ -6416,19 +6423,19 @@
         <v>127</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="130" spans="2:7" ht="409" x14ac:dyDescent="0.2">
@@ -6436,19 +6443,19 @@
         <v>128</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -6456,19 +6463,19 @@
         <v>129</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="132" spans="2:7" ht="320" x14ac:dyDescent="0.2">
@@ -6476,19 +6483,19 @@
         <v>130</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="133" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -6496,19 +6503,19 @@
         <v>131</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="134" spans="2:7" ht="192" x14ac:dyDescent="0.2">
@@ -6516,19 +6523,19 @@
         <v>132</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="2:7" ht="224" x14ac:dyDescent="0.2">
@@ -6536,17 +6543,17 @@
         <v>133</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="2:7" ht="192" x14ac:dyDescent="0.2">
@@ -6554,19 +6561,19 @@
         <v>134</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="2:7" ht="160" x14ac:dyDescent="0.2">
@@ -6574,17 +6581,17 @@
         <v>135</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -6592,17 +6599,17 @@
         <v>136</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="2:7" ht="176" x14ac:dyDescent="0.2">
@@ -6610,17 +6617,17 @@
         <v>137</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="13" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="140" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -6628,19 +6635,19 @@
         <v>138</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -6648,17 +6655,17 @@
         <v>139</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="142" spans="2:7" ht="256" x14ac:dyDescent="0.2">
@@ -6666,17 +6673,17 @@
         <v>140</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
@@ -6693,17 +6700,17 @@
         <v>142</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.2">
@@ -6723,17 +6730,17 @@
         <v>144</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.2">
@@ -6751,19 +6758,19 @@
         <v>146</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -6771,19 +6778,19 @@
         <v>147</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="150" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -6791,19 +6798,19 @@
         <v>148</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="2:7" ht="224" x14ac:dyDescent="0.2">
@@ -6811,19 +6818,19 @@
         <v>149</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -6831,19 +6838,19 @@
         <v>150</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -6851,19 +6858,19 @@
         <v>151</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.2">
@@ -6871,19 +6878,19 @@
         <v>152</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -6891,19 +6898,19 @@
         <v>153</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.2">
@@ -6911,7 +6918,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D156" s="1"/>
     </row>
@@ -6920,7 +6927,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -6956,19 +6963,19 @@
         <v>158</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="161" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -6976,19 +6983,19 @@
         <v>159</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.2">
@@ -6996,19 +7003,19 @@
         <v>160</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="163" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -7016,19 +7023,19 @@
         <v>161</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="164" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -7036,19 +7043,19 @@
         <v>162</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="165" spans="2:7" ht="336" x14ac:dyDescent="0.2">
@@ -7056,19 +7063,19 @@
         <v>163</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="166" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -7076,19 +7083,19 @@
         <v>164</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="167" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -7096,19 +7103,19 @@
         <v>165</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="168" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -7116,19 +7123,19 @@
         <v>166</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="169" spans="2:7" ht="208" x14ac:dyDescent="0.2">
@@ -7136,17 +7143,17 @@
         <v>167</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -7154,17 +7161,17 @@
         <v>168</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="171" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -7172,17 +7179,17 @@
         <v>169</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="172" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -7190,19 +7197,19 @@
         <v>170</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -7210,17 +7217,17 @@
         <v>171</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="174" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -7228,17 +7235,17 @@
         <v>172</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="175" spans="2:7" ht="176" x14ac:dyDescent="0.2">
@@ -7246,19 +7253,19 @@
         <v>173</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="176" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -7266,19 +7273,19 @@
         <v>174</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="177" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -7286,19 +7293,19 @@
         <v>175</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="178" spans="2:7" ht="409" x14ac:dyDescent="0.2">
@@ -7306,19 +7313,19 @@
         <v>176</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="179" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -7326,19 +7333,19 @@
         <v>177</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="180" spans="2:7" ht="256" x14ac:dyDescent="0.2">
@@ -7346,19 +7353,19 @@
         <v>178</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="181" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -7366,19 +7373,19 @@
         <v>179</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="182" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -7386,19 +7393,19 @@
         <v>180</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="183" spans="2:7" ht="246" customHeight="1" x14ac:dyDescent="0.2">
@@ -7406,19 +7413,19 @@
         <v>181</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="184" spans="2:7" ht="409" x14ac:dyDescent="0.2">
@@ -7426,17 +7433,17 @@
         <v>182</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.2">
@@ -7444,17 +7451,17 @@
         <v>183</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="186" spans="2:7" ht="208" x14ac:dyDescent="0.2">
@@ -7462,17 +7469,17 @@
         <v>184</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="187" spans="2:7" ht="409" x14ac:dyDescent="0.2">
@@ -7480,17 +7487,17 @@
         <v>185</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="188" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -7498,19 +7505,19 @@
         <v>186</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="189" spans="2:7" ht="80" x14ac:dyDescent="0.2">
@@ -7518,19 +7525,19 @@
         <v>187</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="190" spans="2:7" ht="272" x14ac:dyDescent="0.2">
@@ -7538,17 +7545,17 @@
         <v>188</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -7556,17 +7563,19 @@
         <v>189</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="D191" s="1"/>
+        <v>645</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>439</v>
+      </c>
       <c r="E191" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="192" spans="2:7" ht="304" x14ac:dyDescent="0.2">
@@ -7574,17 +7583,19 @@
         <v>190</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="G192" s="9" t="s">
         <v>650</v>
-      </c>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="G192" s="9" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="193" spans="2:7" ht="304" x14ac:dyDescent="0.2">
@@ -7592,17 +7603,19 @@
         <v>191</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D193" s="1"/>
+        <v>649</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>772</v>
+      </c>
       <c r="E193" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="194" spans="2:7" ht="409" x14ac:dyDescent="0.2">
@@ -7610,17 +7623,19 @@
         <v>192</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D194" s="1"/>
+        <v>655</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>772</v>
+      </c>
       <c r="E194" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.2">
@@ -7628,17 +7643,17 @@
         <v>193</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="196" spans="2:7" ht="208" x14ac:dyDescent="0.2">
@@ -7646,19 +7661,19 @@
         <v>194</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="197" spans="2:7" ht="160" x14ac:dyDescent="0.2">
@@ -7666,19 +7681,19 @@
         <v>195</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="198" spans="2:7" ht="208" x14ac:dyDescent="0.2">
@@ -7686,17 +7701,17 @@
         <v>196</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G198" s="9" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="199" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -7704,17 +7719,17 @@
         <v>197</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="200" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -7722,17 +7737,17 @@
         <v>198</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="201" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -7740,17 +7755,17 @@
         <v>199</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="202" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -7758,19 +7773,19 @@
         <v>200</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="203" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -7778,17 +7793,17 @@
         <v>201</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="204" spans="2:7" ht="288" x14ac:dyDescent="0.2">
@@ -7796,17 +7811,17 @@
         <v>202</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="205" spans="2:7" ht="320" x14ac:dyDescent="0.2">
@@ -7814,19 +7829,19 @@
         <v>203</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="206" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -7834,17 +7849,19 @@
         <v>204</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D206" s="1"/>
+        <v>695</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>439</v>
+      </c>
       <c r="E206" s="1" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="207" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -7852,17 +7869,19 @@
         <v>205</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="D207" s="1"/>
+        <v>698</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E207" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="208" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -7870,19 +7889,19 @@
         <v>206</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="209" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -7890,19 +7909,19 @@
         <v>207</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="210" spans="2:7" ht="208" x14ac:dyDescent="0.2">
@@ -7910,17 +7929,19 @@
         <v>208</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D210" s="1"/>
+        <v>709</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>772</v>
+      </c>
       <c r="E210" s="1" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="211" spans="2:7" ht="272" x14ac:dyDescent="0.2">
@@ -7928,17 +7949,17 @@
         <v>209</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="212" spans="2:7" ht="128" x14ac:dyDescent="0.2">
@@ -7946,19 +7967,19 @@
         <v>210</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="213" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -7966,17 +7987,19 @@
         <v>211</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="D213" s="1"/>
+        <v>720</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>439</v>
+      </c>
       <c r="E213" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G213" s="9" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="214" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -7984,17 +8007,17 @@
         <v>212</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="G214" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="215" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -8002,17 +8025,17 @@
         <v>213</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="G215" s="9" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.2">
@@ -8020,17 +8043,17 @@
         <v>214</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="G216" s="9" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="217" spans="2:7" ht="112" x14ac:dyDescent="0.2">
@@ -8038,17 +8061,17 @@
         <v>215</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="218" spans="2:7" ht="96" x14ac:dyDescent="0.2">
@@ -8056,17 +8079,17 @@
         <v>216</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="219" spans="2:7" ht="160" x14ac:dyDescent="0.2">
@@ -8074,17 +8097,17 @@
         <v>217</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.2">
@@ -8092,7 +8115,7 @@
         <v>218</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D220" s="1"/>
       <c r="G220" s="9"/>
@@ -8102,17 +8125,17 @@
         <v>219</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="222" spans="2:7" ht="64" x14ac:dyDescent="0.2">
@@ -8120,17 +8143,17 @@
         <v>220</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G222" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="223" spans="2:7" ht="272" x14ac:dyDescent="0.2">
@@ -8138,17 +8161,17 @@
         <v>221</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="G223" s="9" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="224" spans="2:7" ht="240" x14ac:dyDescent="0.2">
@@ -8156,17 +8179,17 @@
         <v>222</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="225" spans="2:7" ht="144" x14ac:dyDescent="0.2">
@@ -8174,17 +8197,17 @@
         <v>223</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="226" spans="2:7" ht="145" thickBot="1" x14ac:dyDescent="0.25">
@@ -8192,20 +8215,21 @@
         <v>224</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D226" s="11"/>
       <c r="E226" s="11" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D226"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ceph/内核模块统计.xlsx
+++ b/ceph/内核模块统计.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="778">
   <si>
     <t>CONFIG_MACH_ARMADA_38X=y</t>
   </si>
@@ -3473,6 +3473,28 @@
 If your system has a device-side USB port, used in the peripheral side of the USB protocol, see the "USB Gadget" framework instead.
 After choosing your HCD, then select drivers for the USB peripherals you'll be using. You may want to check out the information provided in Documentation/usb/ and especially the links given in Documentation/usb/usb-help.txt.
 To compile this driver as a module, choose M here: the module will be called usbcore.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须写Y，不然只能使用750MB内存</t>
+    <rPh sb="0" eb="1">
+      <t>bi xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu rna</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi neng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>nei c</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3519,7 +3541,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3673,11 +3695,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3699,6 +3730,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3976,10 +4009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G226"/>
+  <dimension ref="B1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194"/>
+    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4292,7 +4325,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="80" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -4312,7 +4345,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -4332,7 +4365,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -4352,7 +4385,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -4372,7 +4405,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="112" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -4392,7 +4425,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="160" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="160" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -4412,7 +4445,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -4432,7 +4465,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="288" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="288" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -4452,7 +4485,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="160" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="160" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -4470,15 +4503,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="240" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="240" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>178</v>
+      <c r="D26" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>176</v>
@@ -4489,8 +4522,11 @@
       <c r="G26" s="9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="16" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -4502,7 +4538,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="2:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" ht="96" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -4522,7 +4558,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="144" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -4542,7 +4578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="272" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="272" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -4562,7 +4598,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" ht="128" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
         <v>29</v>
       </c>
@@ -4582,7 +4618,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
         <v>30</v>
       </c>
